--- a/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1DF1A973-2348-4D67-B6C2-8DC99829C378}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D904151A-37A4-4B09-B541-985299F99DC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="572">
   <si>
     <t>组序号</t>
   </si>
@@ -2914,6 +2914,26 @@
       </rPr>
       <t>001</t>
     </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3、5、13、14</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、12</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、11</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、15、16</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -4743,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9642,10 +9662,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -9654,9 +9674,10 @@
     <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
     <col min="4" max="4" width="21.90625" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -9670,7 +9691,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>436</v>
       </c>
@@ -9683,8 +9704,11 @@
       <c r="D2" s="33" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>437</v>
       </c>
@@ -9698,7 +9722,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>556</v>
       </c>
@@ -9711,8 +9735,11 @@
       <c r="D4" s="33" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>557</v>
       </c>
@@ -9725,8 +9752,11 @@
       <c r="D5" s="33" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="33" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>558</v>
       </c>
@@ -9739,8 +9769,11 @@
       <c r="D6" s="33" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>559</v>
       </c>
@@ -9753,26 +9786,29 @@
       <c r="D7" s="33" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="33" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="35"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>

--- a/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D904151A-37A4-4B09-B541-985299F99DC3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACDCE26B-8707-4367-A5AA-31969545D6DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="573">
   <si>
     <t>组序号</t>
   </si>
@@ -2934,6 +2934,10 @@
   </si>
   <si>
     <t>1、</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -4332,76 +4336,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4763,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5102,11 +5106,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="164"/>
-      <c r="B15" s="164" t="s">
+      <c r="A15" s="180"/>
+      <c r="B15" s="180" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="164" t="s">
+      <c r="C15" s="180" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5123,9 +5127,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="162"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5140,9 +5144,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5157,9 +5161,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5174,9 +5178,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5237,11 +5241,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="170"/>
-      <c r="B22" s="170" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="173" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -5258,9 +5262,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="166"/>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
+      <c r="A23" s="170"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -5275,9 +5279,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="166"/>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
+      <c r="A24" s="170"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -5292,9 +5296,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="166"/>
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -5368,11 +5372,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="172"/>
-      <c r="B29" s="175" t="s">
+      <c r="A29" s="184"/>
+      <c r="B29" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="181" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5389,9 +5393,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="182"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5406,9 +5410,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5423,9 +5427,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5440,9 +5444,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="174"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5457,11 +5461,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
-      <c r="B34" s="162" t="s">
+      <c r="A34" s="172"/>
+      <c r="B34" s="172" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="162" t="s">
+      <c r="C34" s="172" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5478,9 +5482,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5495,11 +5499,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="162"/>
-      <c r="B36" s="162" t="s">
+      <c r="A36" s="172"/>
+      <c r="B36" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="164" t="s">
+      <c r="C36" s="180" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20">
@@ -5516,9 +5520,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="162"/>
-      <c r="B37" s="162"/>
-      <c r="C37" s="162"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5533,11 +5537,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="162"/>
-      <c r="B38" s="163" t="s">
+      <c r="A38" s="172"/>
+      <c r="B38" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="163" t="s">
+      <c r="C38" s="162" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5554,9 +5558,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5571,11 +5575,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="162"/>
-      <c r="B40" s="162" t="s">
+      <c r="A40" s="172"/>
+      <c r="B40" s="172" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="163" t="s">
+      <c r="C40" s="162" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5592,9 +5596,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="162"/>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5609,9 +5613,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="162"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5626,9 +5630,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="162"/>
-      <c r="B43" s="162"/>
-      <c r="C43" s="162"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5643,9 +5647,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="162"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5660,11 +5664,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="162">
+      <c r="A45" s="172">
         <v>13</v>
       </c>
-      <c r="B45" s="162"/>
-      <c r="C45" s="162" t="s">
+      <c r="B45" s="172"/>
+      <c r="C45" s="172" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5744,11 +5748,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="169"/>
-      <c r="B49" s="167" t="s">
+      <c r="A49" s="185"/>
+      <c r="B49" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="168" t="s">
+      <c r="C49" s="179" t="s">
         <v>276</v>
       </c>
       <c r="D49" s="20">
@@ -5765,9 +5769,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5782,9 +5786,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
+      <c r="C51" s="172"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5883,11 +5887,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="170"/>
-      <c r="B56" s="165" t="s">
+      <c r="A56" s="173"/>
+      <c r="B56" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="170" t="s">
+      <c r="C56" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5904,9 +5908,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="166"/>
+      <c r="A57" s="170"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5921,9 +5925,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="166"/>
-      <c r="B58" s="166"/>
-      <c r="C58" s="166"/>
+      <c r="A58" s="170"/>
+      <c r="B58" s="170"/>
+      <c r="C58" s="170"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5938,9 +5942,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="166"/>
-      <c r="B59" s="166"/>
-      <c r="C59" s="166"/>
+      <c r="A59" s="170"/>
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5955,9 +5959,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="166"/>
-      <c r="B60" s="166"/>
-      <c r="C60" s="166"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="170"/>
+      <c r="C60" s="170"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5972,9 +5976,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="166"/>
-      <c r="B61" s="166"/>
-      <c r="C61" s="166"/>
+      <c r="A61" s="170"/>
+      <c r="B61" s="170"/>
+      <c r="C61" s="170"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5989,9 +5993,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="166"/>
-      <c r="B62" s="166"/>
-      <c r="C62" s="166"/>
+      <c r="A62" s="170"/>
+      <c r="B62" s="170"/>
+      <c r="C62" s="170"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -6048,11 +6052,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="169"/>
-      <c r="B65" s="167" t="s">
+      <c r="A65" s="185"/>
+      <c r="B65" s="178" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="168" t="s">
+      <c r="C65" s="179" t="s">
         <v>276</v>
       </c>
       <c r="D65" s="20">
@@ -6069,9 +6073,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="162"/>
-      <c r="B66" s="162"/>
-      <c r="C66" s="162"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="172"/>
+      <c r="C66" s="172"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -6086,9 +6090,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="162"/>
-      <c r="B67" s="162"/>
-      <c r="C67" s="162"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="172"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6187,11 +6191,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="170"/>
-      <c r="B72" s="165" t="s">
+      <c r="A72" s="173"/>
+      <c r="B72" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="170" t="s">
+      <c r="C72" s="173" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -6208,9 +6212,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="166"/>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
+      <c r="A73" s="170"/>
+      <c r="B73" s="170"/>
+      <c r="C73" s="170"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -6225,9 +6229,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="166"/>
-      <c r="B74" s="166"/>
-      <c r="C74" s="166"/>
+      <c r="A74" s="170"/>
+      <c r="B74" s="170"/>
+      <c r="C74" s="170"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -6242,9 +6246,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="166"/>
-      <c r="B75" s="166"/>
-      <c r="C75" s="166"/>
+      <c r="A75" s="170"/>
+      <c r="B75" s="170"/>
+      <c r="C75" s="170"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -6259,9 +6263,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="166"/>
-      <c r="B76" s="166"/>
-      <c r="C76" s="166"/>
+      <c r="A76" s="170"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="170"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -6276,9 +6280,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="166"/>
-      <c r="B77" s="166"/>
-      <c r="C77" s="166"/>
+      <c r="A77" s="170"/>
+      <c r="B77" s="170"/>
+      <c r="C77" s="170"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -6293,9 +6297,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="166"/>
-      <c r="B78" s="166"/>
-      <c r="C78" s="166"/>
+      <c r="A78" s="170"/>
+      <c r="B78" s="170"/>
+      <c r="C78" s="170"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -6352,12 +6356,12 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="164"/>
-      <c r="B81" s="164" t="s">
+      <c r="A81" s="180"/>
+      <c r="B81" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="163" t="s">
-        <v>58</v>
+      <c r="C81" s="162" t="s">
+        <v>572</v>
       </c>
       <c r="D81" s="20">
         <v>80</v>
@@ -6373,9 +6377,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="162"/>
-      <c r="B82" s="162"/>
-      <c r="C82" s="162"/>
+      <c r="A82" s="172"/>
+      <c r="B82" s="172"/>
+      <c r="C82" s="172"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6390,9 +6394,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="162"/>
-      <c r="B83" s="162"/>
-      <c r="C83" s="162"/>
+      <c r="A83" s="172"/>
+      <c r="B83" s="172"/>
+      <c r="C83" s="172"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6407,9 +6411,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="162"/>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
+      <c r="A84" s="172"/>
+      <c r="B84" s="172"/>
+      <c r="C84" s="172"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6718,11 +6722,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="176"/>
-      <c r="B99" s="176" t="s">
+      <c r="A99" s="174"/>
+      <c r="B99" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="176" t="s">
+      <c r="C99" s="174" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="80">
@@ -6739,9 +6743,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="176"/>
-      <c r="B100" s="176"/>
-      <c r="C100" s="176"/>
+      <c r="A100" s="174"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
       <c r="D100" s="80">
         <v>99</v>
       </c>
@@ -6756,9 +6760,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="176"/>
-      <c r="B101" s="176"/>
-      <c r="C101" s="176"/>
+      <c r="A101" s="174"/>
+      <c r="B101" s="174"/>
+      <c r="C101" s="174"/>
       <c r="D101" s="80">
         <v>100</v>
       </c>
@@ -6794,11 +6798,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="176"/>
-      <c r="B103" s="176" t="s">
+      <c r="A103" s="174"/>
+      <c r="B103" s="174" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="176" t="s">
+      <c r="C103" s="174" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="75">
@@ -6815,9 +6819,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="179"/>
-      <c r="B104" s="179"/>
-      <c r="C104" s="179"/>
+      <c r="A104" s="175"/>
+      <c r="B104" s="175"/>
+      <c r="C104" s="175"/>
       <c r="D104" s="75">
         <v>103</v>
       </c>
@@ -6832,9 +6836,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="179"/>
-      <c r="B105" s="179"/>
-      <c r="C105" s="179"/>
+      <c r="A105" s="175"/>
+      <c r="B105" s="175"/>
+      <c r="C105" s="175"/>
       <c r="D105" s="75">
         <v>104</v>
       </c>
@@ -7836,11 +7840,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="181"/>
-      <c r="B153" s="180" t="s">
+      <c r="A153" s="177"/>
+      <c r="B153" s="176" t="s">
         <v>448</v>
       </c>
-      <c r="C153" s="162" t="s">
+      <c r="C153" s="172" t="s">
         <v>447</v>
       </c>
       <c r="D153" s="122">
@@ -7857,9 +7861,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="181"/>
-      <c r="B154" s="181"/>
-      <c r="C154" s="162"/>
+      <c r="A154" s="177"/>
+      <c r="B154" s="177"/>
+      <c r="C154" s="172"/>
       <c r="D154" s="122">
         <v>153</v>
       </c>
@@ -7874,9 +7878,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="181"/>
-      <c r="B155" s="181"/>
-      <c r="C155" s="162"/>
+      <c r="A155" s="177"/>
+      <c r="B155" s="177"/>
+      <c r="C155" s="172"/>
       <c r="D155" s="122">
         <v>154</v>
       </c>
@@ -8143,11 +8147,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="165"/>
-      <c r="B168" s="165" t="s">
+      <c r="A168" s="166"/>
+      <c r="B168" s="166" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="165" t="s">
+      <c r="C168" s="166" t="s">
         <v>447</v>
       </c>
       <c r="D168" s="132">
@@ -8164,9 +8168,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="166"/>
-      <c r="B169" s="177"/>
-      <c r="C169" s="177"/>
+      <c r="A169" s="170"/>
+      <c r="B169" s="167"/>
+      <c r="C169" s="167"/>
       <c r="D169" s="132">
         <v>168</v>
       </c>
@@ -8181,9 +8185,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="166"/>
-      <c r="B170" s="177"/>
-      <c r="C170" s="177"/>
+      <c r="A170" s="170"/>
+      <c r="B170" s="167"/>
+      <c r="C170" s="167"/>
       <c r="D170" s="132">
         <v>169</v>
       </c>
@@ -8198,9 +8202,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="166"/>
-      <c r="B171" s="177"/>
-      <c r="C171" s="177"/>
+      <c r="A171" s="170"/>
+      <c r="B171" s="167"/>
+      <c r="C171" s="167"/>
       <c r="D171" s="132">
         <v>170</v>
       </c>
@@ -8215,9 +8219,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="166"/>
-      <c r="B172" s="177"/>
-      <c r="C172" s="177"/>
+      <c r="A172" s="170"/>
+      <c r="B172" s="167"/>
+      <c r="C172" s="167"/>
       <c r="D172" s="132">
         <v>171</v>
       </c>
@@ -8232,9 +8236,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="166"/>
-      <c r="B173" s="177"/>
-      <c r="C173" s="177"/>
+      <c r="A173" s="170"/>
+      <c r="B173" s="167"/>
+      <c r="C173" s="167"/>
       <c r="D173" s="132">
         <v>172</v>
       </c>
@@ -8250,8 +8254,8 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="171"/>
-      <c r="B174" s="178"/>
-      <c r="C174" s="178"/>
+      <c r="B174" s="168"/>
+      <c r="C174" s="168"/>
       <c r="D174" s="132">
         <v>173</v>
       </c>
@@ -8266,11 +8270,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="165"/>
-      <c r="B175" s="165" t="s">
+      <c r="A175" s="166"/>
+      <c r="B175" s="166" t="s">
         <v>489</v>
       </c>
-      <c r="C175" s="165" t="s">
+      <c r="C175" s="166" t="s">
         <v>447</v>
       </c>
       <c r="D175" s="132">
@@ -8287,9 +8291,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="166"/>
-      <c r="B176" s="177"/>
-      <c r="C176" s="177"/>
+      <c r="A176" s="170"/>
+      <c r="B176" s="167"/>
+      <c r="C176" s="167"/>
       <c r="D176" s="132">
         <v>175</v>
       </c>
@@ -8304,9 +8308,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="166"/>
-      <c r="B177" s="177"/>
-      <c r="C177" s="177"/>
+      <c r="A177" s="170"/>
+      <c r="B177" s="167"/>
+      <c r="C177" s="167"/>
       <c r="D177" s="132">
         <v>176</v>
       </c>
@@ -8321,9 +8325,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="166"/>
-      <c r="B178" s="177"/>
-      <c r="C178" s="177"/>
+      <c r="A178" s="170"/>
+      <c r="B178" s="167"/>
+      <c r="C178" s="167"/>
       <c r="D178" s="132">
         <v>177</v>
       </c>
@@ -8338,9 +8342,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="166"/>
-      <c r="B179" s="177"/>
-      <c r="C179" s="177"/>
+      <c r="A179" s="170"/>
+      <c r="B179" s="167"/>
+      <c r="C179" s="167"/>
       <c r="D179" s="132">
         <v>178</v>
       </c>
@@ -8355,9 +8359,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="166"/>
-      <c r="B180" s="177"/>
-      <c r="C180" s="177"/>
+      <c r="A180" s="170"/>
+      <c r="B180" s="167"/>
+      <c r="C180" s="167"/>
       <c r="D180" s="132">
         <v>179</v>
       </c>
@@ -8373,8 +8377,8 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="171"/>
-      <c r="B181" s="178"/>
-      <c r="C181" s="178"/>
+      <c r="B181" s="168"/>
+      <c r="C181" s="168"/>
       <c r="D181" s="132">
         <v>180</v>
       </c>
@@ -8452,11 +8456,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="185"/>
-      <c r="B185" s="165" t="s">
+      <c r="A185" s="169"/>
+      <c r="B185" s="166" t="s">
         <v>544</v>
       </c>
-      <c r="C185" s="182" t="s">
+      <c r="C185" s="163" t="s">
         <v>508</v>
       </c>
       <c r="D185" s="132">
@@ -8473,9 +8477,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="166"/>
-      <c r="B186" s="177"/>
-      <c r="C186" s="183"/>
+      <c r="A186" s="170"/>
+      <c r="B186" s="167"/>
+      <c r="C186" s="164"/>
       <c r="D186" s="132">
         <v>185</v>
       </c>
@@ -8490,9 +8494,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="166"/>
-      <c r="B187" s="177"/>
-      <c r="C187" s="183"/>
+      <c r="A187" s="170"/>
+      <c r="B187" s="167"/>
+      <c r="C187" s="164"/>
       <c r="D187" s="132">
         <v>186</v>
       </c>
@@ -8507,9 +8511,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="166"/>
-      <c r="B188" s="177"/>
-      <c r="C188" s="183"/>
+      <c r="A188" s="170"/>
+      <c r="B188" s="167"/>
+      <c r="C188" s="164"/>
       <c r="D188" s="132">
         <v>187</v>
       </c>
@@ -8524,9 +8528,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="166"/>
-      <c r="B189" s="177"/>
-      <c r="C189" s="183"/>
+      <c r="A189" s="170"/>
+      <c r="B189" s="167"/>
+      <c r="C189" s="164"/>
       <c r="D189" s="132">
         <v>188</v>
       </c>
@@ -8541,9 +8545,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="166"/>
-      <c r="B190" s="177"/>
-      <c r="C190" s="183"/>
+      <c r="A190" s="170"/>
+      <c r="B190" s="167"/>
+      <c r="C190" s="164"/>
       <c r="D190" s="132">
         <v>189</v>
       </c>
@@ -8558,9 +8562,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="166"/>
-      <c r="B191" s="177"/>
-      <c r="C191" s="183"/>
+      <c r="A191" s="170"/>
+      <c r="B191" s="167"/>
+      <c r="C191" s="164"/>
       <c r="D191" s="132">
         <v>190</v>
       </c>
@@ -8575,9 +8579,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="166"/>
-      <c r="B192" s="177"/>
-      <c r="C192" s="183"/>
+      <c r="A192" s="170"/>
+      <c r="B192" s="167"/>
+      <c r="C192" s="164"/>
       <c r="D192" s="132">
         <v>191</v>
       </c>
@@ -8592,9 +8596,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="166"/>
-      <c r="B193" s="177"/>
-      <c r="C193" s="183"/>
+      <c r="A193" s="170"/>
+      <c r="B193" s="167"/>
+      <c r="C193" s="164"/>
       <c r="D193" s="132">
         <v>192</v>
       </c>
@@ -8609,9 +8613,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="166"/>
-      <c r="B194" s="177"/>
-      <c r="C194" s="183"/>
+      <c r="A194" s="170"/>
+      <c r="B194" s="167"/>
+      <c r="C194" s="164"/>
       <c r="D194" s="132">
         <v>193</v>
       </c>
@@ -8626,9 +8630,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="166"/>
-      <c r="B195" s="177"/>
-      <c r="C195" s="183"/>
+      <c r="A195" s="170"/>
+      <c r="B195" s="167"/>
+      <c r="C195" s="164"/>
       <c r="D195" s="132">
         <v>194</v>
       </c>
@@ -8643,9 +8647,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="166"/>
-      <c r="B196" s="177"/>
-      <c r="C196" s="183"/>
+      <c r="A196" s="170"/>
+      <c r="B196" s="167"/>
+      <c r="C196" s="164"/>
       <c r="D196" s="132">
         <v>195</v>
       </c>
@@ -8660,9 +8664,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="166"/>
-      <c r="B197" s="177"/>
-      <c r="C197" s="183"/>
+      <c r="A197" s="170"/>
+      <c r="B197" s="167"/>
+      <c r="C197" s="164"/>
       <c r="D197" s="132">
         <v>196</v>
       </c>
@@ -8677,9 +8681,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="166"/>
-      <c r="B198" s="177"/>
-      <c r="C198" s="183"/>
+      <c r="A198" s="170"/>
+      <c r="B198" s="167"/>
+      <c r="C198" s="164"/>
       <c r="D198" s="132">
         <v>197</v>
       </c>
@@ -8695,8 +8699,8 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="171"/>
-      <c r="B199" s="178"/>
-      <c r="C199" s="184"/>
+      <c r="B199" s="168"/>
+      <c r="C199" s="165"/>
       <c r="D199" s="132">
         <v>198</v>
       </c>
@@ -8711,11 +8715,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="163"/>
-      <c r="B200" s="163" t="s">
+      <c r="A200" s="162"/>
+      <c r="B200" s="162" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="163" t="s">
+      <c r="C200" s="162" t="s">
         <v>554</v>
       </c>
       <c r="D200" s="132">
@@ -8732,9 +8736,9 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="163"/>
-      <c r="B201" s="163"/>
-      <c r="C201" s="163"/>
+      <c r="A201" s="162"/>
+      <c r="B201" s="162"/>
+      <c r="C201" s="162"/>
       <c r="D201" s="132">
         <v>200</v>
       </c>
@@ -8749,9 +8753,9 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="163"/>
-      <c r="B202" s="163"/>
-      <c r="C202" s="163"/>
+      <c r="A202" s="162"/>
+      <c r="B202" s="162"/>
+      <c r="C202" s="162"/>
       <c r="D202" s="132">
         <v>201</v>
       </c>
@@ -8766,9 +8770,9 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="163"/>
-      <c r="B203" s="163"/>
-      <c r="C203" s="163"/>
+      <c r="A203" s="162"/>
+      <c r="B203" s="162"/>
+      <c r="C203" s="162"/>
       <c r="D203" s="132">
         <v>202</v>
       </c>
@@ -8784,12 +8788,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
     <mergeCell ref="C40:C45"/>
     <mergeCell ref="C72:C78"/>
     <mergeCell ref="A175:A181"/>
@@ -8806,41 +8839,12 @@
     <mergeCell ref="A153:A155"/>
     <mergeCell ref="C56:C62"/>
     <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="A185:A199"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACDCE26B-8707-4367-A5AA-31969545D6DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E62992D-79D4-4B7F-A8A4-5CCB25246762}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="576">
   <si>
     <t>组序号</t>
   </si>
@@ -2938,6 +2938,18 @@
   </si>
   <si>
     <t>temperature</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调二维码录入</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeinput</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -3897,7 +3909,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4331,6 +4343,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4765,10 +4780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G203"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F211" sqref="F211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -5106,11 +5121,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180" t="s">
+      <c r="A15" s="181"/>
+      <c r="B15" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="181" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
@@ -5127,9 +5142,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="173"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
@@ -5144,9 +5159,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
@@ -5161,9 +5176,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
@@ -5178,9 +5193,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
@@ -5241,11 +5256,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="173" t="s">
+      <c r="A22" s="174"/>
+      <c r="B22" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="174" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
@@ -5262,9 +5277,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="171"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
@@ -5279,9 +5294,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="171"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
@@ -5296,9 +5311,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="171"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
@@ -5313,9 +5328,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
@@ -5372,11 +5387,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="181" t="s">
+      <c r="A29" s="185"/>
+      <c r="B29" s="182" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="182" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
@@ -5393,9 +5408,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
@@ -5410,9 +5425,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
@@ -5427,9 +5442,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
@@ -5444,9 +5459,9 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="184"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
@@ -5461,11 +5476,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="173"/>
+      <c r="B34" s="173" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="173" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
@@ -5482,9 +5497,9 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
+      <c r="A35" s="173"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="173"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
@@ -5499,11 +5514,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="173"/>
+      <c r="B36" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="181" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20">
@@ -5520,9 +5535,9 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
+      <c r="A37" s="173"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
@@ -5537,11 +5552,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="162" t="s">
+      <c r="A38" s="173"/>
+      <c r="B38" s="163" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="163" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
@@ -5558,9 +5573,9 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
+      <c r="A39" s="173"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
@@ -5575,11 +5590,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172" t="s">
+      <c r="A40" s="173"/>
+      <c r="B40" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="163" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5596,9 +5611,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
+      <c r="A41" s="173"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
@@ -5613,9 +5628,9 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="172"/>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="A42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
@@ -5630,9 +5645,9 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="A43" s="173"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
@@ -5647,9 +5662,9 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="A44" s="173"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
@@ -5664,11 +5679,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="172">
+      <c r="A45" s="173">
         <v>13</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172" t="s">
+      <c r="B45" s="173"/>
+      <c r="C45" s="173" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5748,11 +5763,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
-      <c r="B49" s="178" t="s">
+      <c r="A49" s="186"/>
+      <c r="B49" s="179" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="180" t="s">
         <v>276</v>
       </c>
       <c r="D49" s="20">
@@ -5769,9 +5784,9 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
+      <c r="A50" s="173"/>
+      <c r="B50" s="173"/>
+      <c r="C50" s="173"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
@@ -5786,9 +5801,9 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
+      <c r="A51" s="173"/>
+      <c r="B51" s="173"/>
+      <c r="C51" s="173"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
@@ -5887,11 +5902,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="166" t="s">
+      <c r="A56" s="174"/>
+      <c r="B56" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="174" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
@@ -5908,9 +5923,9 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="170"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
+      <c r="A57" s="171"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
@@ -5925,9 +5940,9 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="170"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
+      <c r="A58" s="171"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="171"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
@@ -5942,9 +5957,9 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="170"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
+      <c r="A59" s="171"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="171"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
@@ -5959,9 +5974,9 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="170"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
@@ -5976,9 +5991,9 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="170"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="171"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
@@ -5993,9 +6008,9 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="170"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
+      <c r="A62" s="171"/>
+      <c r="B62" s="171"/>
+      <c r="C62" s="171"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
@@ -6052,11 +6067,11 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="185"/>
-      <c r="B65" s="178" t="s">
+      <c r="A65" s="186"/>
+      <c r="B65" s="179" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="179" t="s">
+      <c r="C65" s="180" t="s">
         <v>276</v>
       </c>
       <c r="D65" s="20">
@@ -6073,9 +6088,9 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
+      <c r="A66" s="173"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="173"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
@@ -6090,9 +6105,9 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="172"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="172"/>
+      <c r="A67" s="173"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="173"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
@@ -6191,11 +6206,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="173"/>
-      <c r="B72" s="166" t="s">
+      <c r="A72" s="174"/>
+      <c r="B72" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="173" t="s">
+      <c r="C72" s="174" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
@@ -6212,9 +6227,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="170"/>
-      <c r="B73" s="170"/>
-      <c r="C73" s="170"/>
+      <c r="A73" s="171"/>
+      <c r="B73" s="171"/>
+      <c r="C73" s="171"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
@@ -6229,9 +6244,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="170"/>
-      <c r="B74" s="170"/>
-      <c r="C74" s="170"/>
+      <c r="A74" s="171"/>
+      <c r="B74" s="171"/>
+      <c r="C74" s="171"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
@@ -6246,9 +6261,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="170"/>
-      <c r="B75" s="170"/>
-      <c r="C75" s="170"/>
+      <c r="A75" s="171"/>
+      <c r="B75" s="171"/>
+      <c r="C75" s="171"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
@@ -6263,9 +6278,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="170"/>
-      <c r="B76" s="170"/>
-      <c r="C76" s="170"/>
+      <c r="A76" s="171"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
@@ -6280,9 +6295,9 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="170"/>
-      <c r="B77" s="170"/>
-      <c r="C77" s="170"/>
+      <c r="A77" s="171"/>
+      <c r="B77" s="171"/>
+      <c r="C77" s="171"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
@@ -6297,9 +6312,9 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="170"/>
-      <c r="B78" s="170"/>
-      <c r="C78" s="170"/>
+      <c r="A78" s="171"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="171"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
@@ -6356,11 +6371,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="180"/>
-      <c r="B81" s="180" t="s">
+      <c r="A81" s="181"/>
+      <c r="B81" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="162" t="s">
+      <c r="C81" s="163" t="s">
         <v>572</v>
       </c>
       <c r="D81" s="20">
@@ -6377,9 +6392,9 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="172"/>
+      <c r="A82" s="173"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="173"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
@@ -6394,9 +6409,9 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
+      <c r="A83" s="173"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
@@ -6411,9 +6426,9 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
+      <c r="A84" s="173"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
@@ -6722,11 +6737,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="174"/>
-      <c r="B99" s="174" t="s">
+      <c r="A99" s="175"/>
+      <c r="B99" s="175" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="174" t="s">
+      <c r="C99" s="175" t="s">
         <v>76</v>
       </c>
       <c r="D99" s="80">
@@ -6743,9 +6758,9 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="174"/>
-      <c r="B100" s="174"/>
-      <c r="C100" s="174"/>
+      <c r="A100" s="175"/>
+      <c r="B100" s="175"/>
+      <c r="C100" s="175"/>
       <c r="D100" s="80">
         <v>99</v>
       </c>
@@ -6760,9 +6775,9 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="174"/>
-      <c r="B101" s="174"/>
-      <c r="C101" s="174"/>
+      <c r="A101" s="175"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="175"/>
       <c r="D101" s="80">
         <v>100</v>
       </c>
@@ -6798,11 +6813,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="174"/>
-      <c r="B103" s="174" t="s">
+      <c r="A103" s="175"/>
+      <c r="B103" s="175" t="s">
         <v>288</v>
       </c>
-      <c r="C103" s="174" t="s">
+      <c r="C103" s="175" t="s">
         <v>58</v>
       </c>
       <c r="D103" s="75">
@@ -6819,9 +6834,9 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="175"/>
-      <c r="B104" s="175"/>
-      <c r="C104" s="175"/>
+      <c r="A104" s="176"/>
+      <c r="B104" s="176"/>
+      <c r="C104" s="176"/>
       <c r="D104" s="75">
         <v>103</v>
       </c>
@@ -6836,9 +6851,9 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="175"/>
-      <c r="B105" s="175"/>
-      <c r="C105" s="175"/>
+      <c r="A105" s="176"/>
+      <c r="B105" s="176"/>
+      <c r="C105" s="176"/>
       <c r="D105" s="75">
         <v>104</v>
       </c>
@@ -7840,11 +7855,11 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="177"/>
-      <c r="B153" s="176" t="s">
+      <c r="A153" s="178"/>
+      <c r="B153" s="177" t="s">
         <v>448</v>
       </c>
-      <c r="C153" s="172" t="s">
+      <c r="C153" s="173" t="s">
         <v>447</v>
       </c>
       <c r="D153" s="122">
@@ -7861,9 +7876,9 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="177"/>
-      <c r="B154" s="177"/>
-      <c r="C154" s="172"/>
+      <c r="A154" s="178"/>
+      <c r="B154" s="178"/>
+      <c r="C154" s="173"/>
       <c r="D154" s="122">
         <v>153</v>
       </c>
@@ -7878,9 +7893,9 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="177"/>
-      <c r="B155" s="177"/>
-      <c r="C155" s="172"/>
+      <c r="A155" s="178"/>
+      <c r="B155" s="178"/>
+      <c r="C155" s="173"/>
       <c r="D155" s="122">
         <v>154</v>
       </c>
@@ -8147,11 +8162,11 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="166"/>
-      <c r="B168" s="166" t="s">
+      <c r="A168" s="167"/>
+      <c r="B168" s="167" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="166" t="s">
+      <c r="C168" s="167" t="s">
         <v>447</v>
       </c>
       <c r="D168" s="132">
@@ -8168,9 +8183,9 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="170"/>
-      <c r="B169" s="167"/>
-      <c r="C169" s="167"/>
+      <c r="A169" s="171"/>
+      <c r="B169" s="168"/>
+      <c r="C169" s="168"/>
       <c r="D169" s="132">
         <v>168</v>
       </c>
@@ -8185,9 +8200,9 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="170"/>
-      <c r="B170" s="167"/>
-      <c r="C170" s="167"/>
+      <c r="A170" s="171"/>
+      <c r="B170" s="168"/>
+      <c r="C170" s="168"/>
       <c r="D170" s="132">
         <v>169</v>
       </c>
@@ -8202,9 +8217,9 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="170"/>
-      <c r="B171" s="167"/>
-      <c r="C171" s="167"/>
+      <c r="A171" s="171"/>
+      <c r="B171" s="168"/>
+      <c r="C171" s="168"/>
       <c r="D171" s="132">
         <v>170</v>
       </c>
@@ -8219,9 +8234,9 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="170"/>
-      <c r="B172" s="167"/>
-      <c r="C172" s="167"/>
+      <c r="A172" s="171"/>
+      <c r="B172" s="168"/>
+      <c r="C172" s="168"/>
       <c r="D172" s="132">
         <v>171</v>
       </c>
@@ -8236,9 +8251,9 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="170"/>
-      <c r="B173" s="167"/>
-      <c r="C173" s="167"/>
+      <c r="A173" s="171"/>
+      <c r="B173" s="168"/>
+      <c r="C173" s="168"/>
       <c r="D173" s="132">
         <v>172</v>
       </c>
@@ -8253,9 +8268,9 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="171"/>
-      <c r="B174" s="168"/>
-      <c r="C174" s="168"/>
+      <c r="A174" s="172"/>
+      <c r="B174" s="169"/>
+      <c r="C174" s="169"/>
       <c r="D174" s="132">
         <v>173</v>
       </c>
@@ -8270,11 +8285,11 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="166"/>
-      <c r="B175" s="166" t="s">
+      <c r="A175" s="167"/>
+      <c r="B175" s="167" t="s">
         <v>489</v>
       </c>
-      <c r="C175" s="166" t="s">
+      <c r="C175" s="167" t="s">
         <v>447</v>
       </c>
       <c r="D175" s="132">
@@ -8291,9 +8306,9 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="170"/>
-      <c r="B176" s="167"/>
-      <c r="C176" s="167"/>
+      <c r="A176" s="171"/>
+      <c r="B176" s="168"/>
+      <c r="C176" s="168"/>
       <c r="D176" s="132">
         <v>175</v>
       </c>
@@ -8308,9 +8323,9 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="170"/>
-      <c r="B177" s="167"/>
-      <c r="C177" s="167"/>
+      <c r="A177" s="171"/>
+      <c r="B177" s="168"/>
+      <c r="C177" s="168"/>
       <c r="D177" s="132">
         <v>176</v>
       </c>
@@ -8325,9 +8340,9 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="170"/>
-      <c r="B178" s="167"/>
-      <c r="C178" s="167"/>
+      <c r="A178" s="171"/>
+      <c r="B178" s="168"/>
+      <c r="C178" s="168"/>
       <c r="D178" s="132">
         <v>177</v>
       </c>
@@ -8342,9 +8357,9 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="170"/>
-      <c r="B179" s="167"/>
-      <c r="C179" s="167"/>
+      <c r="A179" s="171"/>
+      <c r="B179" s="168"/>
+      <c r="C179" s="168"/>
       <c r="D179" s="132">
         <v>178</v>
       </c>
@@ -8359,9 +8374,9 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="170"/>
-      <c r="B180" s="167"/>
-      <c r="C180" s="167"/>
+      <c r="A180" s="171"/>
+      <c r="B180" s="168"/>
+      <c r="C180" s="168"/>
       <c r="D180" s="132">
         <v>179</v>
       </c>
@@ -8376,9 +8391,9 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="171"/>
-      <c r="B181" s="168"/>
-      <c r="C181" s="168"/>
+      <c r="A181" s="172"/>
+      <c r="B181" s="169"/>
+      <c r="C181" s="169"/>
       <c r="D181" s="132">
         <v>180</v>
       </c>
@@ -8456,11 +8471,11 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="169"/>
-      <c r="B185" s="166" t="s">
+      <c r="A185" s="170"/>
+      <c r="B185" s="167" t="s">
         <v>544</v>
       </c>
-      <c r="C185" s="163" t="s">
+      <c r="C185" s="164" t="s">
         <v>508</v>
       </c>
       <c r="D185" s="132">
@@ -8477,9 +8492,9 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="170"/>
-      <c r="B186" s="167"/>
-      <c r="C186" s="164"/>
+      <c r="A186" s="171"/>
+      <c r="B186" s="168"/>
+      <c r="C186" s="165"/>
       <c r="D186" s="132">
         <v>185</v>
       </c>
@@ -8494,9 +8509,9 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="170"/>
-      <c r="B187" s="167"/>
-      <c r="C187" s="164"/>
+      <c r="A187" s="171"/>
+      <c r="B187" s="168"/>
+      <c r="C187" s="165"/>
       <c r="D187" s="132">
         <v>186</v>
       </c>
@@ -8511,9 +8526,9 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="170"/>
-      <c r="B188" s="167"/>
-      <c r="C188" s="164"/>
+      <c r="A188" s="171"/>
+      <c r="B188" s="168"/>
+      <c r="C188" s="165"/>
       <c r="D188" s="132">
         <v>187</v>
       </c>
@@ -8528,9 +8543,9 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="170"/>
-      <c r="B189" s="167"/>
-      <c r="C189" s="164"/>
+      <c r="A189" s="171"/>
+      <c r="B189" s="168"/>
+      <c r="C189" s="165"/>
       <c r="D189" s="132">
         <v>188</v>
       </c>
@@ -8545,9 +8560,9 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="170"/>
-      <c r="B190" s="167"/>
-      <c r="C190" s="164"/>
+      <c r="A190" s="171"/>
+      <c r="B190" s="168"/>
+      <c r="C190" s="165"/>
       <c r="D190" s="132">
         <v>189</v>
       </c>
@@ -8562,9 +8577,9 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="170"/>
-      <c r="B191" s="167"/>
-      <c r="C191" s="164"/>
+      <c r="A191" s="171"/>
+      <c r="B191" s="168"/>
+      <c r="C191" s="165"/>
       <c r="D191" s="132">
         <v>190</v>
       </c>
@@ -8579,9 +8594,9 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="170"/>
-      <c r="B192" s="167"/>
-      <c r="C192" s="164"/>
+      <c r="A192" s="171"/>
+      <c r="B192" s="168"/>
+      <c r="C192" s="165"/>
       <c r="D192" s="132">
         <v>191</v>
       </c>
@@ -8596,9 +8611,9 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="170"/>
-      <c r="B193" s="167"/>
-      <c r="C193" s="164"/>
+      <c r="A193" s="171"/>
+      <c r="B193" s="168"/>
+      <c r="C193" s="165"/>
       <c r="D193" s="132">
         <v>192</v>
       </c>
@@ -8613,9 +8628,9 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="170"/>
-      <c r="B194" s="167"/>
-      <c r="C194" s="164"/>
+      <c r="A194" s="171"/>
+      <c r="B194" s="168"/>
+      <c r="C194" s="165"/>
       <c r="D194" s="132">
         <v>193</v>
       </c>
@@ -8630,9 +8645,9 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="170"/>
-      <c r="B195" s="167"/>
-      <c r="C195" s="164"/>
+      <c r="A195" s="171"/>
+      <c r="B195" s="168"/>
+      <c r="C195" s="165"/>
       <c r="D195" s="132">
         <v>194</v>
       </c>
@@ -8647,9 +8662,9 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="170"/>
-      <c r="B196" s="167"/>
-      <c r="C196" s="164"/>
+      <c r="A196" s="171"/>
+      <c r="B196" s="168"/>
+      <c r="C196" s="165"/>
       <c r="D196" s="132">
         <v>195</v>
       </c>
@@ -8664,9 +8679,9 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="170"/>
-      <c r="B197" s="167"/>
-      <c r="C197" s="164"/>
+      <c r="A197" s="171"/>
+      <c r="B197" s="168"/>
+      <c r="C197" s="165"/>
       <c r="D197" s="132">
         <v>196</v>
       </c>
@@ -8681,9 +8696,9 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="170"/>
-      <c r="B198" s="167"/>
-      <c r="C198" s="164"/>
+      <c r="A198" s="171"/>
+      <c r="B198" s="168"/>
+      <c r="C198" s="165"/>
       <c r="D198" s="132">
         <v>197</v>
       </c>
@@ -8698,9 +8713,9 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="171"/>
-      <c r="B199" s="168"/>
-      <c r="C199" s="165"/>
+      <c r="A199" s="172"/>
+      <c r="B199" s="169"/>
+      <c r="C199" s="166"/>
       <c r="D199" s="132">
         <v>198</v>
       </c>
@@ -8715,11 +8730,11 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="162"/>
-      <c r="B200" s="162" t="s">
+      <c r="A200" s="163"/>
+      <c r="B200" s="163" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="162" t="s">
+      <c r="C200" s="163" t="s">
         <v>554</v>
       </c>
       <c r="D200" s="132">
@@ -8736,9 +8751,9 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="162"/>
-      <c r="B201" s="162"/>
-      <c r="C201" s="162"/>
+      <c r="A201" s="163"/>
+      <c r="B201" s="163"/>
+      <c r="C201" s="163"/>
       <c r="D201" s="132">
         <v>200</v>
       </c>
@@ -8753,9 +8768,9 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="162"/>
-      <c r="B202" s="162"/>
-      <c r="C202" s="162"/>
+      <c r="A202" s="163"/>
+      <c r="B202" s="163"/>
+      <c r="C202" s="163"/>
       <c r="D202" s="132">
         <v>201</v>
       </c>
@@ -8770,9 +8785,9 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="162"/>
-      <c r="B203" s="162"/>
-      <c r="C203" s="162"/>
+      <c r="A203" s="163"/>
+      <c r="B203" s="163"/>
+      <c r="C203" s="163"/>
       <c r="D203" s="132">
         <v>202</v>
       </c>
@@ -8784,6 +8799,27 @@
       </c>
       <c r="G203" s="161" t="s">
         <v>553</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="142"/>
+      <c r="B204" s="162" t="s">
+        <v>573</v>
+      </c>
+      <c r="C204" s="162" t="s">
+        <v>574</v>
+      </c>
+      <c r="D204" s="132">
+        <v>203</v>
+      </c>
+      <c r="E204" s="162" t="s">
+        <v>573</v>
+      </c>
+      <c r="F204" s="162" t="s">
+        <v>575</v>
+      </c>
+      <c r="G204" s="162" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_megmeet_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ACDCE26B-8707-4367-A5AA-31969545D6DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{247BD7E5-30ED-4045-91B9-A2FD570203D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" tabRatio="667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="575">
   <si>
     <t>组序号</t>
   </si>
@@ -2938,6 +2938,14 @@
   </si>
   <si>
     <t>temperature</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -4066,15 +4074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4339,6 +4338,66 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4348,64 +4407,13 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4767,8 +4775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81:C84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4810,10 +4818,10 @@
       <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="105" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="20">
@@ -4833,10 +4841,10 @@
       <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="105" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="20">
@@ -4845,7 +4853,7 @@
       <c r="E3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -4856,16 +4864,16 @@
       <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="95" t="s">
         <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -4879,19 +4887,19 @@
       <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="102" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -4905,7 +4913,7 @@
       <c r="B6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="20">
@@ -4914,7 +4922,7 @@
       <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -4928,7 +4936,7 @@
       <c r="B7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="20">
@@ -4937,7 +4945,7 @@
       <c r="E7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -4948,19 +4956,19 @@
       <c r="A8" s="19">
         <v>1</v>
       </c>
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -4974,7 +4982,7 @@
       <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="20">
@@ -4983,7 +4991,7 @@
       <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -4994,19 +5002,19 @@
       <c r="A10" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -5020,7 +5028,7 @@
       <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="20">
@@ -5029,7 +5037,7 @@
       <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -5040,19 +5048,19 @@
       <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="B12" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -5063,19 +5071,19 @@
       <c r="A13" s="19">
         <v>1</v>
       </c>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -5086,19 +5094,19 @@
       <c r="A14" s="19">
         <v>1</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="B14" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="103" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="20">
         <v>13</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -5106,20 +5114,20 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180" t="s">
+      <c r="A15" s="162"/>
+      <c r="B15" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C15" s="162" t="s">
         <v>110</v>
       </c>
       <c r="D15" s="20">
         <v>14</v>
       </c>
-      <c r="E15" s="98" t="s">
+      <c r="E15" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -5127,16 +5135,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="20">
         <v>15</v>
       </c>
-      <c r="E16" s="98" t="s">
+      <c r="E16" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -5144,16 +5152,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="172"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="20">
         <v>16</v>
       </c>
-      <c r="E17" s="98" t="s">
+      <c r="E17" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="8" t="s">
@@ -5161,16 +5169,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
+      <c r="A18" s="160"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="20">
         <v>17</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -5178,16 +5186,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="172"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
       <c r="D19" s="20">
         <v>18</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -5198,19 +5206,19 @@
       <c r="A20" s="19">
         <v>1</v>
       </c>
-      <c r="B20" s="112" t="s">
+      <c r="B20" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="102" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="20">
         <v>19</v>
       </c>
-      <c r="E20" s="98" t="s">
+      <c r="E20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -5221,19 +5229,19 @@
       <c r="A21" s="19">
         <v>1</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="20">
         <v>20</v>
       </c>
-      <c r="E21" s="98" t="s">
+      <c r="E21" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="64" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -5241,20 +5249,20 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="173" t="s">
+      <c r="A22" s="168"/>
+      <c r="B22" s="168" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="168" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="20">
         <v>21</v>
       </c>
-      <c r="E22" s="98" t="s">
+      <c r="E22" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -5262,16 +5270,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="A23" s="164"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="20">
         <v>22</v>
       </c>
-      <c r="E23" s="98" t="s">
+      <c r="E23" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -5279,16 +5287,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="164"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
       <c r="D24" s="20">
         <v>23</v>
       </c>
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="64" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -5296,16 +5304,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="170"/>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="164"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="164"/>
       <c r="D25" s="20">
         <v>24</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="66" t="s">
+      <c r="F25" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="26" t="s">
@@ -5313,16 +5321,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
+      <c r="A26" s="169"/>
+      <c r="B26" s="169"/>
+      <c r="C26" s="169"/>
       <c r="D26" s="20">
         <v>25</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="64" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="25" t="s">
@@ -5331,19 +5339,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="20">
         <v>26</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="66" t="s">
+      <c r="F27" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -5355,16 +5363,16 @@
       <c r="B28" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="105" t="s">
+      <c r="C28" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="20">
         <v>27</v>
       </c>
-      <c r="E28" s="98" t="s">
+      <c r="E28" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -5372,109 +5380,109 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
-      <c r="B29" s="181" t="s">
+      <c r="A29" s="170"/>
+      <c r="B29" s="173" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="181" t="s">
+      <c r="C29" s="173" t="s">
         <v>58</v>
       </c>
       <c r="D29" s="20">
         <v>28</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="66" t="s">
+      <c r="F29" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="182"/>
+      <c r="A30" s="171"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
       <c r="D30" s="20">
         <v>29</v>
       </c>
-      <c r="E30" s="98" t="s">
+      <c r="E30" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
+      <c r="A31" s="171"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
       <c r="D31" s="20">
         <v>30</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="66" t="s">
+      <c r="F31" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="182"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
+      <c r="A32" s="171"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
       <c r="D32" s="20">
         <v>31</v>
       </c>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="G32" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="20">
         <v>32</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="66" t="s">
+      <c r="F33" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="62" t="s">
+      <c r="G33" s="59" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="172"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="160"/>
+      <c r="B34" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="160" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="20">
         <v>33</v>
       </c>
-      <c r="E34" s="98" t="s">
+      <c r="E34" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -5482,16 +5490,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="172"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
       <c r="D35" s="20">
         <v>34</v>
       </c>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="66" t="s">
+      <c r="F35" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -5499,20 +5507,20 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="172"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="160"/>
+      <c r="B36" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="162" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="65" t="s">
         <v>73</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -5520,16 +5528,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="20">
         <v>36</v>
       </c>
-      <c r="E37" s="98" t="s">
+      <c r="E37" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="66" t="s">
+      <c r="F37" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="4">
@@ -5537,20 +5545,20 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="172"/>
-      <c r="B38" s="162" t="s">
+      <c r="A38" s="160"/>
+      <c r="B38" s="161" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D38" s="20">
         <v>37</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="67" t="s">
+      <c r="F38" s="64" t="s">
         <v>11</v>
       </c>
       <c r="G38" s="8">
@@ -5558,16 +5566,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
       <c r="D39" s="20">
         <v>38</v>
       </c>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="66" t="s">
+      <c r="F39" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G39" s="4">
@@ -5575,11 +5583,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172" t="s">
+      <c r="A40" s="160"/>
+      <c r="B40" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="161" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="20">
@@ -5588,7 +5596,7 @@
       <c r="E40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="54" t="s">
@@ -5596,16 +5604,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="20">
         <v>40</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="54" t="s">
@@ -5613,16 +5621,16 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="172"/>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="20">
         <v>41</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="64" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="54" t="s">
@@ -5630,16 +5638,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="160"/>
       <c r="D43" s="20">
         <v>42</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="54" t="s">
@@ -5647,16 +5655,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
       <c r="D44" s="20">
         <v>43</v>
       </c>
       <c r="E44" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="54" t="s">
@@ -5664,11 +5672,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="172">
+      <c r="A45" s="160">
         <v>13</v>
       </c>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172" t="s">
+      <c r="B45" s="160"/>
+      <c r="C45" s="160" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="20">
@@ -5677,7 +5685,7 @@
       <c r="E45" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="54" t="s">
@@ -5686,10 +5694,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="121" t="s">
+      <c r="B46" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="104" t="s">
         <v>161</v>
       </c>
       <c r="D46" s="20">
@@ -5698,7 +5706,7 @@
       <c r="E46" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F46" s="67" t="s">
+      <c r="F46" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G46" s="53" t="s">
@@ -5707,10 +5715,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D47" s="20">
@@ -5719,7 +5727,7 @@
       <c r="E47" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="64" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8" t="s">
@@ -5731,7 +5739,7 @@
       <c r="B48" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="C48" s="107" t="s">
+      <c r="C48" s="104" t="s">
         <v>161</v>
       </c>
       <c r="D48" s="20">
@@ -5740,7 +5748,7 @@
       <c r="E48" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="F48" s="67" t="s">
+      <c r="F48" s="64" t="s">
         <v>77</v>
       </c>
       <c r="G48" s="8" t="s">
@@ -5748,11 +5756,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
-      <c r="B49" s="178" t="s">
+      <c r="A49" s="167"/>
+      <c r="B49" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="166" t="s">
         <v>276</v>
       </c>
       <c r="D49" s="20">
@@ -5761,7 +5769,7 @@
       <c r="E49" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="66" t="s">
         <v>206</v>
       </c>
       <c r="G49" s="8" t="s">
@@ -5769,16 +5777,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="172"/>
-      <c r="C50" s="172"/>
+      <c r="A50" s="160"/>
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
       <c r="D50" s="20">
         <v>49</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F50" s="69" t="s">
+      <c r="F50" s="66" t="s">
         <v>207</v>
       </c>
       <c r="G50" s="8" t="s">
@@ -5786,16 +5794,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
-      <c r="C51" s="172"/>
+      <c r="A51" s="160"/>
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
       <c r="D51" s="20">
         <v>50</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="69" t="s">
+      <c r="F51" s="66" t="s">
         <v>208</v>
       </c>
       <c r="G51" s="8" t="s">
@@ -5804,23 +5812,23 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="48"/>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="185" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="137" t="s">
         <v>58</v>
       </c>
       <c r="D52" s="20">
         <v>51</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="F52" s="68" t="s">
+      <c r="F52" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G52" s="61">
-        <v>6</v>
+      <c r="G52" s="124" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -5828,7 +5836,7 @@
       <c r="B53" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="20">
@@ -5837,19 +5845,19 @@
       <c r="E53" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="66" t="s">
+      <c r="F53" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="59">
-        <v>4</v>
+      <c r="G53" s="124" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="113" t="s">
+      <c r="B54" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="105" t="s">
+      <c r="C54" s="102" t="s">
         <v>129</v>
       </c>
       <c r="D54" s="20">
@@ -5858,28 +5866,28 @@
       <c r="E54" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="159" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="107" t="s">
+      <c r="C55" s="104" t="s">
         <v>130</v>
       </c>
       <c r="D55" s="20">
         <v>54</v>
       </c>
-      <c r="E55" s="110" t="s">
+      <c r="E55" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="66" t="s">
+      <c r="F55" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -5887,20 +5895,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="166" t="s">
+      <c r="A56" s="168"/>
+      <c r="B56" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="168" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="20">
         <v>55</v>
       </c>
-      <c r="E56" s="146" t="s">
+      <c r="E56" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -5908,101 +5916,101 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="170"/>
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
       <c r="D57" s="20">
         <v>56</v>
       </c>
       <c r="E57" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F57" s="127" t="s">
+      <c r="F57" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="G57" s="127" t="s">
+      <c r="G57" s="124" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="170"/>
-      <c r="B58" s="170"/>
-      <c r="C58" s="170"/>
+      <c r="A58" s="164"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
       <c r="D58" s="20">
         <v>57</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="127" t="s">
+      <c r="F58" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="G58" s="127" t="s">
+      <c r="G58" s="124" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="170"/>
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
+      <c r="A59" s="164"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
       <c r="D59" s="20">
         <v>58</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="F59" s="143" t="s">
+      <c r="F59" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="143" t="s">
+      <c r="G59" s="140" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="170"/>
-      <c r="B60" s="170"/>
-      <c r="C60" s="170"/>
+      <c r="A60" s="164"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
       <c r="D60" s="20">
         <v>59</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="127" t="s">
+      <c r="F60" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="G60" s="127" t="s">
+      <c r="G60" s="124" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="170"/>
-      <c r="B61" s="170"/>
-      <c r="C61" s="170"/>
+      <c r="A61" s="164"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
       <c r="D61" s="20">
         <v>60</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F61" s="127" t="s">
+      <c r="F61" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="G61" s="127" t="s">
+      <c r="G61" s="124" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="170"/>
-      <c r="B62" s="170"/>
-      <c r="C62" s="170"/>
+      <c r="A62" s="164"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
       <c r="D62" s="20">
         <v>61</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="66" t="s">
+      <c r="F62" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G62" s="28" t="s">
@@ -6011,10 +6019,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="113" t="s">
+      <c r="B63" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="105" t="s">
+      <c r="C63" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="20">
@@ -6023,7 +6031,7 @@
       <c r="E63" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F63" s="66" t="s">
+      <c r="F63" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -6032,10 +6040,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="107" t="s">
+      <c r="C64" s="104" t="s">
         <v>230</v>
       </c>
       <c r="D64" s="20">
@@ -6044,19 +6052,19 @@
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G64" s="159" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="185"/>
-      <c r="B65" s="178" t="s">
+      <c r="A65" s="167"/>
+      <c r="B65" s="165" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="179" t="s">
+      <c r="C65" s="166" t="s">
         <v>276</v>
       </c>
       <c r="D65" s="20">
@@ -6065,7 +6073,7 @@
       <c r="E65" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="F65" s="69" t="s">
+      <c r="F65" s="66" t="s">
         <v>209</v>
       </c>
       <c r="G65" s="47" t="s">
@@ -6073,16 +6081,16 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
-      <c r="B66" s="172"/>
-      <c r="C66" s="172"/>
+      <c r="A66" s="160"/>
+      <c r="B66" s="160"/>
+      <c r="C66" s="160"/>
       <c r="D66" s="20">
         <v>65</v>
       </c>
       <c r="E66" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="F66" s="69" t="s">
+      <c r="F66" s="66" t="s">
         <v>212</v>
       </c>
       <c r="G66" s="47" t="s">
@@ -6090,16 +6098,16 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="172"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="172"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="160"/>
+      <c r="C67" s="160"/>
       <c r="D67" s="20">
         <v>66</v>
       </c>
       <c r="E67" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="F67" s="69" t="s">
+      <c r="F67" s="66" t="s">
         <v>213</v>
       </c>
       <c r="G67" s="47" t="s">
@@ -6108,7 +6116,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="44"/>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="60" t="s">
         <v>177</v>
       </c>
       <c r="C68" s="44" t="s">
@@ -6117,14 +6125,14 @@
       <c r="D68" s="20">
         <v>67</v>
       </c>
-      <c r="E68" s="64" t="s">
+      <c r="E68" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="F68" s="68" t="s">
+      <c r="F68" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="G68" s="61">
-        <v>6</v>
+      <c r="G68" s="124" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -6132,7 +6140,7 @@
       <c r="B69" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C69" s="107" t="s">
+      <c r="C69" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D69" s="20">
@@ -6141,19 +6149,19 @@
       <c r="E69" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F69" s="66" t="s">
+      <c r="F69" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="60">
-        <v>4</v>
+      <c r="G69" s="124" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
-      <c r="B70" s="113" t="s">
+      <c r="B70" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="102" t="s">
         <v>129</v>
       </c>
       <c r="D70" s="20">
@@ -6162,7 +6170,7 @@
       <c r="E70" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G70" s="38" t="s">
@@ -6171,10 +6179,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="112" t="s">
+      <c r="B71" s="109" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="107" t="s">
+      <c r="C71" s="104" t="s">
         <v>130</v>
       </c>
       <c r="D71" s="20">
@@ -6183,7 +6191,7 @@
       <c r="E71" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="66" t="s">
+      <c r="F71" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -6191,20 +6199,20 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="173"/>
-      <c r="B72" s="166" t="s">
+      <c r="A72" s="168"/>
+      <c r="B72" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="173" t="s">
+      <c r="C72" s="168" t="s">
         <v>131</v>
       </c>
       <c r="D72" s="20">
         <v>71</v>
       </c>
-      <c r="E72" s="146" t="s">
+      <c r="E72" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G72" s="36" t="s">
@@ -6212,50 +6220,50 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="170"/>
-      <c r="B73" s="170"/>
-      <c r="C73" s="170"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="164"/>
       <c r="D73" s="20">
         <v>72</v>
       </c>
       <c r="E73" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="F73" s="127" t="s">
+      <c r="F73" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="G73" s="127" t="s">
+      <c r="G73" s="124" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="170"/>
-      <c r="B74" s="170"/>
-      <c r="C74" s="170"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="164"/>
       <c r="D74" s="20">
         <v>73</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="F74" s="127" t="s">
+      <c r="F74" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="G74" s="127" t="s">
+      <c r="G74" s="124" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="170"/>
-      <c r="B75" s="170"/>
-      <c r="C75" s="170"/>
+      <c r="A75" s="164"/>
+      <c r="B75" s="164"/>
+      <c r="C75" s="164"/>
       <c r="D75" s="20">
         <v>74</v>
       </c>
       <c r="E75" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F75" s="66" t="s">
+      <c r="F75" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G75" s="37" t="s">
@@ -6263,50 +6271,50 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="170"/>
-      <c r="B76" s="170"/>
-      <c r="C76" s="170"/>
+      <c r="A76" s="164"/>
+      <c r="B76" s="164"/>
+      <c r="C76" s="164"/>
       <c r="D76" s="20">
         <v>75</v>
       </c>
       <c r="E76" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="F76" s="127" t="s">
+      <c r="F76" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="G76" s="127" t="s">
+      <c r="G76" s="124" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="170"/>
-      <c r="B77" s="170"/>
-      <c r="C77" s="170"/>
+      <c r="A77" s="164"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
       <c r="D77" s="20">
         <v>76</v>
       </c>
       <c r="E77" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="127" t="s">
+      <c r="F77" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="G77" s="127" t="s">
+      <c r="G77" s="124" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="170"/>
-      <c r="B78" s="170"/>
-      <c r="C78" s="170"/>
+      <c r="A78" s="164"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="164"/>
       <c r="D78" s="20">
         <v>77</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G78" s="37" t="s">
@@ -6315,10 +6323,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="113" t="s">
+      <c r="B79" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="105" t="s">
+      <c r="C79" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="20">
@@ -6327,7 +6335,7 @@
       <c r="E79" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F79" s="66" t="s">
+      <c r="F79" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -6336,10 +6344,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="113" t="s">
+      <c r="B80" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="107" t="s">
+      <c r="C80" s="104" t="s">
         <v>230</v>
       </c>
       <c r="D80" s="20">
@@ -6348,7 +6356,7 @@
       <c r="E80" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="66" t="s">
+      <c r="F80" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="4" t="s">
@@ -6356,11 +6364,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="180"/>
-      <c r="B81" s="180" t="s">
+      <c r="A81" s="162"/>
+      <c r="B81" s="162" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="162" t="s">
+      <c r="C81" s="161" t="s">
         <v>572</v>
       </c>
       <c r="D81" s="20">
@@ -6369,7 +6377,7 @@
       <c r="E81" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F81" s="66" t="s">
+      <c r="F81" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="4" t="s">
@@ -6377,16 +6385,16 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
-      <c r="B82" s="172"/>
-      <c r="C82" s="172"/>
+      <c r="A82" s="160"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="160"/>
       <c r="D82" s="20">
         <v>81</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F82" s="66" t="s">
+      <c r="F82" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="4" t="s">
@@ -6394,16 +6402,16 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
-      <c r="B83" s="172"/>
-      <c r="C83" s="172"/>
+      <c r="A83" s="160"/>
+      <c r="B83" s="160"/>
+      <c r="C83" s="160"/>
       <c r="D83" s="20">
         <v>82</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F83" s="66" t="s">
+      <c r="F83" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G83" s="4" t="s">
@@ -6411,16 +6419,16 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
-      <c r="B84" s="172"/>
-      <c r="C84" s="172"/>
+      <c r="A84" s="160"/>
+      <c r="B84" s="160"/>
+      <c r="C84" s="160"/>
       <c r="D84" s="20">
         <v>83</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="66" t="s">
+      <c r="F84" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -6429,19 +6437,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="112" t="s">
+      <c r="B85" s="109" t="s">
         <v>90</v>
       </c>
-      <c r="C85" s="107" t="s">
+      <c r="C85" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="20">
         <v>84</v>
       </c>
-      <c r="E85" s="98" t="s">
+      <c r="E85" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="F85" s="67" t="s">
+      <c r="F85" s="64" t="s">
         <v>91</v>
       </c>
       <c r="G85" s="8" t="s">
@@ -6450,19 +6458,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="109" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="105" t="s">
+      <c r="C86" s="102" t="s">
         <v>76</v>
       </c>
       <c r="D86" s="20">
         <v>85</v>
       </c>
-      <c r="E86" s="98" t="s">
+      <c r="E86" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="66" t="s">
+      <c r="F86" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -6471,19 +6479,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="112" t="s">
+      <c r="B87" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="107" t="s">
+      <c r="C87" s="104" t="s">
         <v>217</v>
       </c>
-      <c r="D87" s="65">
+      <c r="D87" s="62">
         <v>86</v>
       </c>
-      <c r="E87" s="98" t="s">
+      <c r="E87" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="68" t="s">
+      <c r="F87" s="65" t="s">
         <v>73</v>
       </c>
       <c r="G87" s="8" t="s">
@@ -6492,19 +6500,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="113" t="s">
+      <c r="B88" s="110" t="s">
         <v>436</v>
       </c>
-      <c r="C88" s="107" t="s">
+      <c r="C88" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D88" s="65">
+      <c r="D88" s="62">
         <v>87</v>
       </c>
-      <c r="E88" s="95" t="s">
+      <c r="E88" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="F88" s="66">
+      <c r="F88" s="63">
         <v>20</v>
       </c>
       <c r="G88" s="31" t="s">
@@ -6513,19 +6521,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
-      <c r="B89" s="113" t="s">
+      <c r="B89" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="C89" s="107" t="s">
+      <c r="C89" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="D89" s="65">
+      <c r="D89" s="62">
         <v>88</v>
       </c>
-      <c r="E89" s="95" t="s">
+      <c r="E89" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="F89" s="66">
+      <c r="F89" s="63">
         <v>20</v>
       </c>
       <c r="G89" s="32" t="s">
@@ -6534,19 +6542,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="113" t="s">
+      <c r="B90" s="110" t="s">
         <v>437</v>
       </c>
-      <c r="C90" s="107" t="s">
+      <c r="C90" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D90" s="65">
+      <c r="D90" s="62">
         <v>89</v>
       </c>
-      <c r="E90" s="95" t="s">
+      <c r="E90" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="F90" s="67">
+      <c r="F90" s="64">
         <v>3</v>
       </c>
       <c r="G90" s="30" t="s">
@@ -6555,19 +6563,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
-      <c r="B91" s="113" t="s">
+      <c r="B91" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="108" t="s">
+      <c r="C91" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="65">
+      <c r="D91" s="62">
         <v>90</v>
       </c>
-      <c r="E91" s="95" t="s">
+      <c r="E91" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="F91" s="67" t="s">
+      <c r="F91" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G91" s="54" t="s">
@@ -6576,19 +6584,19 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="C92" s="108" t="s">
+      <c r="C92" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D92" s="65">
+      <c r="D92" s="62">
         <v>91</v>
       </c>
-      <c r="E92" s="95" t="s">
+      <c r="E92" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="F92" s="67" t="s">
+      <c r="F92" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G92" s="54" t="s">
@@ -6597,19 +6605,19 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
-      <c r="B93" s="113" t="s">
+      <c r="B93" s="110" t="s">
         <v>256</v>
       </c>
-      <c r="C93" s="108" t="s">
+      <c r="C93" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="65">
+      <c r="D93" s="62">
         <v>92</v>
       </c>
-      <c r="E93" s="95" t="s">
+      <c r="E93" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G93" s="54" t="s">
@@ -6618,19 +6626,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
-      <c r="B94" s="113" t="s">
+      <c r="B94" s="110" t="s">
         <v>224</v>
       </c>
-      <c r="C94" s="108" t="s">
+      <c r="C94" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D94" s="65">
+      <c r="D94" s="62">
         <v>93</v>
       </c>
-      <c r="E94" s="95" t="s">
+      <c r="E94" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G94" s="54" t="s">
@@ -6639,19 +6647,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
-      <c r="B95" s="113" t="s">
+      <c r="B95" s="110" t="s">
         <v>227</v>
       </c>
-      <c r="C95" s="108" t="s">
+      <c r="C95" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="65">
+      <c r="D95" s="62">
         <v>94</v>
       </c>
-      <c r="E95" s="95" t="s">
+      <c r="E95" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="F95" s="67" t="s">
+      <c r="F95" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G95" s="54" t="s">
@@ -6660,19 +6668,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
-      <c r="B96" s="113" t="s">
+      <c r="B96" s="110" t="s">
         <v>257</v>
       </c>
-      <c r="C96" s="108" t="s">
+      <c r="C96" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="65">
+      <c r="D96" s="62">
         <v>95</v>
       </c>
-      <c r="E96" s="95" t="s">
+      <c r="E96" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="F96" s="67" t="s">
+      <c r="F96" s="64" t="s">
         <v>73</v>
       </c>
       <c r="G96" s="54" t="s">
@@ -6680,44 +6688,44 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="65"/>
-      <c r="B97" s="114" t="s">
+      <c r="A97" s="62"/>
+      <c r="B97" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="C97" s="108" t="s">
+      <c r="C97" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="65">
+      <c r="D97" s="62">
         <v>96</v>
       </c>
-      <c r="E97" s="95" t="s">
+      <c r="E97" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="F97" s="67" t="s">
+      <c r="F97" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G97" s="144" t="s">
+      <c r="G97" s="141" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="65"/>
-      <c r="B98" s="114" t="s">
+      <c r="A98" s="62"/>
+      <c r="B98" s="111" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="150" t="s">
+      <c r="C98" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="D98" s="65">
+      <c r="D98" s="62">
         <v>97</v>
       </c>
-      <c r="E98" s="95" t="s">
+      <c r="E98" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="F98" s="67" t="s">
+      <c r="F98" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="G98" s="144" t="s">
+      <c r="G98" s="141" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6729,16 +6737,16 @@
       <c r="C99" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="D99" s="80">
+      <c r="D99" s="77">
         <v>98</v>
       </c>
-      <c r="E99" s="95" t="s">
+      <c r="E99" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="F99" s="79" t="s">
+      <c r="F99" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G99" s="79" t="s">
+      <c r="G99" s="76" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6746,16 +6754,16 @@
       <c r="A100" s="174"/>
       <c r="B100" s="174"/>
       <c r="C100" s="174"/>
-      <c r="D100" s="80">
+      <c r="D100" s="77">
         <v>99</v>
       </c>
-      <c r="E100" s="95" t="s">
+      <c r="E100" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="F100" s="79" t="s">
+      <c r="F100" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G100" s="79" t="s">
+      <c r="G100" s="76" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6763,37 +6771,37 @@
       <c r="A101" s="174"/>
       <c r="B101" s="174"/>
       <c r="C101" s="174"/>
-      <c r="D101" s="80">
+      <c r="D101" s="77">
         <v>100</v>
       </c>
-      <c r="E101" s="95" t="s">
+      <c r="E101" s="92" t="s">
         <v>291</v>
       </c>
-      <c r="F101" s="79" t="s">
+      <c r="F101" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G101" s="79" t="s">
+      <c r="G101" s="76" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
-      <c r="B102" s="115" t="s">
+      <c r="A102" s="78"/>
+      <c r="B102" s="112" t="s">
         <v>299</v>
       </c>
-      <c r="C102" s="109" t="s">
+      <c r="C102" s="106" t="s">
         <v>298</v>
       </c>
-      <c r="D102" s="80">
+      <c r="D102" s="77">
         <v>101</v>
       </c>
-      <c r="E102" s="95" t="s">
+      <c r="E102" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="F102" s="79" t="s">
+      <c r="F102" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="G102" s="79" t="s">
+      <c r="G102" s="76" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6805,1989 +6813,2030 @@
       <c r="C103" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="D103" s="75">
+      <c r="D103" s="72">
         <v>102</v>
       </c>
-      <c r="E103" s="95" t="s">
+      <c r="E103" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="F103" s="70" t="s">
+      <c r="F103" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G103" s="70" t="s">
+      <c r="G103" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="175"/>
-      <c r="B104" s="175"/>
-      <c r="C104" s="175"/>
-      <c r="D104" s="75">
+      <c r="A104" s="177"/>
+      <c r="B104" s="177"/>
+      <c r="C104" s="177"/>
+      <c r="D104" s="72">
         <v>103</v>
       </c>
-      <c r="E104" s="96" t="s">
+      <c r="E104" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F104" s="70" t="s">
+      <c r="F104" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G104" s="70" t="s">
+      <c r="G104" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="175"/>
-      <c r="B105" s="175"/>
-      <c r="C105" s="175"/>
-      <c r="D105" s="75">
+      <c r="A105" s="177"/>
+      <c r="B105" s="177"/>
+      <c r="C105" s="177"/>
+      <c r="D105" s="72">
         <v>104</v>
       </c>
-      <c r="E105" s="96" t="s">
+      <c r="E105" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F105" s="70" t="s">
+      <c r="F105" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G105" s="70" t="s">
+      <c r="G105" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="72" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="73"/>
-      <c r="B106" s="113" t="s">
+    <row r="106" spans="1:7" s="69" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="70"/>
+      <c r="B106" s="110" t="s">
         <v>289</v>
       </c>
-      <c r="C106" s="108" t="s">
+      <c r="C106" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="D106" s="97">
+      <c r="D106" s="94">
         <v>105</v>
       </c>
-      <c r="E106" s="95" t="s">
+      <c r="E106" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="F106" s="141" t="s">
+      <c r="F106" s="138" t="s">
         <v>498</v>
       </c>
-      <c r="G106" s="70" t="s">
+      <c r="G106" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="72" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="76"/>
-      <c r="B107" s="114" t="s">
+    <row r="107" spans="1:7" s="69" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="73"/>
+      <c r="B107" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="C107" s="108" t="s">
+      <c r="C107" s="105" t="s">
         <v>442</v>
       </c>
-      <c r="D107" s="97">
+      <c r="D107" s="94">
         <v>106</v>
       </c>
-      <c r="E107" s="97" t="s">
+      <c r="E107" s="94" t="s">
         <v>292</v>
       </c>
-      <c r="F107" s="74" t="s">
+      <c r="F107" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G107" s="74" t="s">
+      <c r="G107" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="76"/>
-      <c r="B108" s="114" t="s">
+    <row r="108" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="73"/>
+      <c r="B108" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="C108" s="108" t="s">
+      <c r="C108" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="97">
+      <c r="D108" s="94">
         <v>107</v>
       </c>
-      <c r="E108" s="97" t="s">
+      <c r="E108" s="94" t="s">
         <v>293</v>
       </c>
-      <c r="F108" s="74" t="s">
+      <c r="F108" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G108" s="74" t="s">
+      <c r="G108" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="76"/>
-      <c r="B109" s="114" t="s">
+    <row r="109" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="73"/>
+      <c r="B109" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="C109" s="108" t="s">
+      <c r="C109" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D109" s="97">
+      <c r="D109" s="94">
         <v>108</v>
       </c>
-      <c r="E109" s="97" t="s">
+      <c r="E109" s="94" t="s">
         <v>294</v>
       </c>
-      <c r="F109" s="74" t="s">
+      <c r="F109" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G109" s="74" t="s">
+      <c r="G109" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="72" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="76"/>
-      <c r="B110" s="114" t="s">
+    <row r="110" spans="1:7" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="73"/>
+      <c r="B110" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="C110" s="108" t="s">
+      <c r="C110" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D110" s="97">
+      <c r="D110" s="94">
         <v>109</v>
       </c>
-      <c r="E110" s="97" t="s">
+      <c r="E110" s="94" t="s">
         <v>295</v>
       </c>
-      <c r="F110" s="74" t="s">
+      <c r="F110" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G110" s="74" t="s">
+      <c r="G110" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="72" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="76"/>
-      <c r="B111" s="113" t="s">
+    <row r="111" spans="1:7" s="69" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="73"/>
+      <c r="B111" s="110" t="s">
         <v>296</v>
       </c>
-      <c r="C111" s="108" t="s">
+      <c r="C111" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D111" s="97">
+      <c r="D111" s="94">
         <v>110</v>
       </c>
-      <c r="E111" s="95" t="s">
+      <c r="E111" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="F111" s="74" t="s">
+      <c r="F111" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="G111" s="74" t="s">
+      <c r="G111" s="71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="72" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="113" t="s">
+    <row r="112" spans="1:7" s="69" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="74"/>
+      <c r="B112" s="110" t="s">
         <v>297</v>
       </c>
-      <c r="C112" s="108" t="s">
+      <c r="C112" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="D112" s="97">
+      <c r="D112" s="94">
         <v>111</v>
       </c>
-      <c r="E112" s="95" t="s">
+      <c r="E112" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="F112" s="78" t="s">
+      <c r="F112" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="78" t="s">
+      <c r="G112" s="75" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
-      <c r="B113" s="113" t="s">
+      <c r="A113" s="96"/>
+      <c r="B113" s="110" t="s">
         <v>336</v>
       </c>
-      <c r="C113" s="107" t="s">
+      <c r="C113" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="114">
+      <c r="D113" s="111">
         <v>112</v>
       </c>
-      <c r="E113" s="95" t="s">
+      <c r="E113" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="F113" s="88" t="s">
+      <c r="F113" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G113" s="88">
+      <c r="G113" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="99"/>
-      <c r="B114" s="113" t="s">
+      <c r="A114" s="96"/>
+      <c r="B114" s="110" t="s">
         <v>341</v>
       </c>
-      <c r="C114" s="107" t="s">
+      <c r="C114" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D114" s="114">
+      <c r="D114" s="111">
         <v>113</v>
       </c>
-      <c r="E114" s="95" t="s">
+      <c r="E114" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="F114" s="88" t="s">
+      <c r="F114" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G114" s="88">
+      <c r="G114" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="99"/>
-      <c r="B115" s="113" t="s">
+      <c r="A115" s="96"/>
+      <c r="B115" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C115" s="107" t="s">
+      <c r="C115" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D115" s="114">
+      <c r="D115" s="111">
         <v>114</v>
       </c>
-      <c r="E115" s="95" t="s">
+      <c r="E115" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="F115" s="88" t="s">
+      <c r="F115" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G115" s="88">
+      <c r="G115" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="99"/>
-      <c r="B116" s="113" t="s">
+      <c r="A116" s="96"/>
+      <c r="B116" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="C116" s="107" t="s">
+      <c r="C116" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D116" s="114">
+      <c r="D116" s="111">
         <v>115</v>
       </c>
-      <c r="E116" s="95" t="s">
+      <c r="E116" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="F116" s="88" t="s">
+      <c r="F116" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G116" s="88">
+      <c r="G116" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="99"/>
-      <c r="B117" s="113" t="s">
+      <c r="A117" s="96"/>
+      <c r="B117" s="110" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="107" t="s">
+      <c r="C117" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D117" s="114">
+      <c r="D117" s="111">
         <v>116</v>
       </c>
-      <c r="E117" s="95" t="s">
+      <c r="E117" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="F117" s="88" t="s">
+      <c r="F117" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G117" s="88">
+      <c r="G117" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="99"/>
-      <c r="B118" s="113" t="s">
+      <c r="A118" s="96"/>
+      <c r="B118" s="110" t="s">
         <v>438</v>
       </c>
-      <c r="C118" s="107" t="s">
+      <c r="C118" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D118" s="114">
+      <c r="D118" s="111">
         <v>117</v>
       </c>
-      <c r="E118" s="95" t="s">
+      <c r="E118" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="F118" s="88" t="s">
+      <c r="F118" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G118" s="88">
+      <c r="G118" s="85">
         <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="99"/>
-      <c r="B119" s="113" t="s">
+      <c r="A119" s="96"/>
+      <c r="B119" s="110" t="s">
         <v>439</v>
       </c>
-      <c r="C119" s="107" t="s">
+      <c r="C119" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D119" s="114">
+      <c r="D119" s="111">
         <v>118</v>
       </c>
-      <c r="E119" s="95" t="s">
+      <c r="E119" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="F119" s="88" t="s">
+      <c r="F119" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G119" s="87">
+      <c r="G119" s="84">
         <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="107"/>
-      <c r="B120" s="113" t="s">
+      <c r="A120" s="104"/>
+      <c r="B120" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C120" s="107" t="s">
+      <c r="C120" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="D120" s="114">
+      <c r="D120" s="111">
         <v>119</v>
       </c>
-      <c r="E120" s="107" t="s">
+      <c r="E120" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="F120" s="107" t="s">
+      <c r="F120" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="G120" s="107" t="s">
+      <c r="G120" s="104" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="111"/>
-      <c r="B121" s="113" t="s">
+      <c r="A121" s="108"/>
+      <c r="B121" s="110" t="s">
         <v>385</v>
       </c>
-      <c r="C121" s="111" t="s">
+      <c r="C121" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="D121" s="114">
+      <c r="D121" s="111">
         <v>120</v>
       </c>
-      <c r="E121" s="111" t="s">
+      <c r="E121" s="108" t="s">
         <v>385</v>
       </c>
-      <c r="F121" s="111" t="s">
+      <c r="F121" s="108" t="s">
         <v>388</v>
       </c>
-      <c r="G121" s="111" t="s">
+      <c r="G121" s="108" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="111"/>
-      <c r="B122" s="113" t="s">
+      <c r="A122" s="108"/>
+      <c r="B122" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="111" t="s">
+      <c r="C122" s="108" t="s">
         <v>335</v>
       </c>
-      <c r="D122" s="114">
+      <c r="D122" s="111">
         <v>121</v>
       </c>
-      <c r="E122" s="111" t="s">
+      <c r="E122" s="108" t="s">
         <v>386</v>
       </c>
-      <c r="F122" s="111" t="s">
+      <c r="F122" s="108" t="s">
         <v>388</v>
       </c>
-      <c r="G122" s="111" t="s">
+      <c r="G122" s="108" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="117"/>
-      <c r="B123" s="117" t="s">
+      <c r="A123" s="114"/>
+      <c r="B123" s="114" t="s">
         <v>402</v>
       </c>
-      <c r="C123" s="117" t="s">
+      <c r="C123" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D123" s="116">
+      <c r="D123" s="113">
         <v>122</v>
       </c>
-      <c r="E123" s="117" t="s">
+      <c r="E123" s="114" t="s">
         <v>402</v>
       </c>
-      <c r="F123" s="117" t="s">
+      <c r="F123" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G123" s="117" t="s">
+      <c r="G123" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="117"/>
-      <c r="B124" s="117" t="s">
+      <c r="A124" s="114"/>
+      <c r="B124" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="C124" s="117" t="s">
+      <c r="C124" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D124" s="116">
+      <c r="D124" s="113">
         <v>123</v>
       </c>
-      <c r="E124" s="117" t="s">
+      <c r="E124" s="114" t="s">
         <v>403</v>
       </c>
-      <c r="F124" s="117" t="s">
+      <c r="F124" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G124" s="117" t="s">
+      <c r="G124" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="117"/>
-      <c r="B125" s="117" t="s">
+      <c r="A125" s="114"/>
+      <c r="B125" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="C125" s="117" t="s">
+      <c r="C125" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D125" s="116">
+      <c r="D125" s="113">
         <v>124</v>
       </c>
-      <c r="E125" s="117" t="s">
+      <c r="E125" s="114" t="s">
         <v>404</v>
       </c>
-      <c r="F125" s="117" t="s">
+      <c r="F125" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G125" s="117" t="s">
+      <c r="G125" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="117"/>
-      <c r="B126" s="117" t="s">
+      <c r="A126" s="114"/>
+      <c r="B126" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="C126" s="117" t="s">
+      <c r="C126" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D126" s="116">
+      <c r="D126" s="113">
         <v>125</v>
       </c>
-      <c r="E126" s="117" t="s">
+      <c r="E126" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G126" s="117" t="s">
+      <c r="G126" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="117"/>
-      <c r="B127" s="117" t="s">
+      <c r="A127" s="114"/>
+      <c r="B127" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="C127" s="117" t="s">
+      <c r="C127" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D127" s="116">
+      <c r="D127" s="113">
         <v>126</v>
       </c>
-      <c r="E127" s="117" t="s">
+      <c r="E127" s="114" t="s">
         <v>412</v>
       </c>
-      <c r="F127" s="117" t="s">
+      <c r="F127" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G127" s="117" t="s">
+      <c r="G127" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="117"/>
-      <c r="B128" s="117" t="s">
+      <c r="A128" s="114"/>
+      <c r="B128" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="C128" s="117" t="s">
+      <c r="C128" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D128" s="116">
+      <c r="D128" s="113">
         <v>127</v>
       </c>
-      <c r="E128" s="117" t="s">
+      <c r="E128" s="114" t="s">
         <v>413</v>
       </c>
-      <c r="F128" s="117" t="s">
+      <c r="F128" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G128" s="117" t="s">
+      <c r="G128" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="117"/>
-      <c r="B129" s="117" t="s">
+      <c r="A129" s="114"/>
+      <c r="B129" s="114" t="s">
         <v>414</v>
       </c>
-      <c r="C129" s="117" t="s">
+      <c r="C129" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D129" s="116">
+      <c r="D129" s="113">
         <v>128</v>
       </c>
-      <c r="E129" s="117" t="s">
+      <c r="E129" s="114" t="s">
         <v>414</v>
       </c>
-      <c r="F129" s="117" t="s">
+      <c r="F129" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G129" s="117" t="s">
+      <c r="G129" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="117"/>
-      <c r="B130" s="117" t="s">
+      <c r="A130" s="114"/>
+      <c r="B130" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="C130" s="117" t="s">
+      <c r="C130" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D130" s="116">
+      <c r="D130" s="113">
         <v>129</v>
       </c>
-      <c r="E130" s="117" t="s">
+      <c r="E130" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="F130" s="117" t="s">
+      <c r="F130" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G130" s="117" t="s">
+      <c r="G130" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="117"/>
-      <c r="B131" s="117" t="s">
+      <c r="A131" s="114"/>
+      <c r="B131" s="114" t="s">
         <v>394</v>
       </c>
-      <c r="C131" s="117" t="s">
+      <c r="C131" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D131" s="116">
+      <c r="D131" s="113">
         <v>130</v>
       </c>
-      <c r="E131" s="117" t="s">
+      <c r="E131" s="114" t="s">
         <v>394</v>
       </c>
-      <c r="F131" s="117" t="s">
+      <c r="F131" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G131" s="117" t="s">
+      <c r="G131" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="117"/>
-      <c r="B132" s="117" t="s">
+      <c r="A132" s="114"/>
+      <c r="B132" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="C132" s="117" t="s">
+      <c r="C132" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D132" s="116">
+      <c r="D132" s="113">
         <v>131</v>
       </c>
-      <c r="E132" s="117" t="s">
+      <c r="E132" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="F132" s="117" t="s">
+      <c r="F132" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G132" s="117" t="s">
+      <c r="G132" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="117"/>
-      <c r="B133" s="117" t="s">
+      <c r="A133" s="114"/>
+      <c r="B133" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="C133" s="117" t="s">
+      <c r="C133" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D133" s="116">
+      <c r="D133" s="113">
         <v>132</v>
       </c>
-      <c r="E133" s="117" t="s">
+      <c r="E133" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="F133" s="117" t="s">
+      <c r="F133" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G133" s="117" t="s">
+      <c r="G133" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="117"/>
-      <c r="B134" s="117" t="s">
+      <c r="A134" s="114"/>
+      <c r="B134" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="C134" s="117" t="s">
+      <c r="C134" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D134" s="116">
+      <c r="D134" s="113">
         <v>133</v>
       </c>
-      <c r="E134" s="117" t="s">
+      <c r="E134" s="114" t="s">
         <v>397</v>
       </c>
-      <c r="F134" s="117" t="s">
+      <c r="F134" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G134" s="117" t="s">
+      <c r="G134" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="117"/>
-      <c r="B135" s="117" t="s">
+      <c r="A135" s="114"/>
+      <c r="B135" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="C135" s="117" t="s">
+      <c r="C135" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D135" s="116">
+      <c r="D135" s="113">
         <v>134</v>
       </c>
-      <c r="E135" s="117" t="s">
+      <c r="E135" s="114" t="s">
         <v>398</v>
       </c>
-      <c r="F135" s="117" t="s">
+      <c r="F135" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G135" s="117" t="s">
+      <c r="G135" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="117"/>
-      <c r="B136" s="117" t="s">
+      <c r="A136" s="114"/>
+      <c r="B136" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="117" t="s">
+      <c r="C136" s="114" t="s">
         <v>418</v>
       </c>
-      <c r="D136" s="116">
+      <c r="D136" s="113">
         <v>135</v>
       </c>
-      <c r="E136" s="117" t="s">
+      <c r="E136" s="114" t="s">
         <v>399</v>
       </c>
-      <c r="F136" s="117" t="s">
+      <c r="F136" s="114" t="s">
         <v>388</v>
       </c>
-      <c r="G136" s="117" t="s">
+      <c r="G136" s="114" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="118"/>
-      <c r="B137" s="118" t="s">
+      <c r="A137" s="115"/>
+      <c r="B137" s="115" t="s">
         <v>420</v>
       </c>
-      <c r="C137" s="118" t="s">
+      <c r="C137" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D137" s="118">
+      <c r="D137" s="115">
         <v>136</v>
       </c>
-      <c r="E137" s="119" t="s">
+      <c r="E137" s="116" t="s">
         <v>420</v>
       </c>
-      <c r="F137" s="118" t="s">
+      <c r="F137" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G137" s="118" t="s">
+      <c r="G137" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="118"/>
-      <c r="B138" s="118" t="s">
+      <c r="A138" s="115"/>
+      <c r="B138" s="115" t="s">
         <v>421</v>
       </c>
-      <c r="C138" s="118" t="s">
+      <c r="C138" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D138" s="118">
+      <c r="D138" s="115">
         <v>137</v>
       </c>
-      <c r="E138" s="119" t="s">
+      <c r="E138" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="F138" s="118" t="s">
+      <c r="F138" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G138" s="118" t="s">
+      <c r="G138" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="118"/>
-      <c r="B139" s="118" t="s">
+      <c r="A139" s="115"/>
+      <c r="B139" s="115" t="s">
         <v>422</v>
       </c>
-      <c r="C139" s="118" t="s">
+      <c r="C139" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D139" s="118">
+      <c r="D139" s="115">
         <v>138</v>
       </c>
-      <c r="E139" s="119" t="s">
+      <c r="E139" s="116" t="s">
         <v>422</v>
       </c>
-      <c r="F139" s="118" t="s">
+      <c r="F139" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G139" s="118" t="s">
+      <c r="G139" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="118"/>
-      <c r="B140" s="118" t="s">
+      <c r="A140" s="115"/>
+      <c r="B140" s="115" t="s">
         <v>423</v>
       </c>
-      <c r="C140" s="118" t="s">
+      <c r="C140" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D140" s="118">
+      <c r="D140" s="115">
         <v>139</v>
       </c>
-      <c r="E140" s="119" t="s">
+      <c r="E140" s="116" t="s">
         <v>423</v>
       </c>
-      <c r="F140" s="118" t="s">
+      <c r="F140" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G140" s="118" t="s">
+      <c r="G140" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="118"/>
-      <c r="B141" s="118" t="s">
+      <c r="A141" s="115"/>
+      <c r="B141" s="115" t="s">
         <v>424</v>
       </c>
-      <c r="C141" s="118" t="s">
+      <c r="C141" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D141" s="118">
+      <c r="D141" s="115">
         <v>140</v>
       </c>
-      <c r="E141" s="119" t="s">
+      <c r="E141" s="116" t="s">
         <v>424</v>
       </c>
-      <c r="F141" s="118" t="s">
+      <c r="F141" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G141" s="118" t="s">
+      <c r="G141" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="118"/>
-      <c r="B142" s="118" t="s">
+      <c r="A142" s="115"/>
+      <c r="B142" s="115" t="s">
         <v>425</v>
       </c>
-      <c r="C142" s="118" t="s">
+      <c r="C142" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D142" s="118">
+      <c r="D142" s="115">
         <v>141</v>
       </c>
-      <c r="E142" s="119" t="s">
+      <c r="E142" s="116" t="s">
         <v>425</v>
       </c>
-      <c r="F142" s="118" t="s">
+      <c r="F142" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G142" s="118" t="s">
+      <c r="G142" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="118"/>
-      <c r="B143" s="118" t="s">
+      <c r="A143" s="115"/>
+      <c r="B143" s="115" t="s">
         <v>426</v>
       </c>
-      <c r="C143" s="118" t="s">
+      <c r="C143" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D143" s="118">
+      <c r="D143" s="115">
         <v>142</v>
       </c>
-      <c r="E143" s="119" t="s">
+      <c r="E143" s="116" t="s">
         <v>426</v>
       </c>
-      <c r="F143" s="118" t="s">
+      <c r="F143" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G143" s="118" t="s">
+      <c r="G143" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="118"/>
-      <c r="B144" s="118" t="s">
+      <c r="A144" s="115"/>
+      <c r="B144" s="115" t="s">
         <v>427</v>
       </c>
-      <c r="C144" s="118" t="s">
+      <c r="C144" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D144" s="118">
+      <c r="D144" s="115">
         <v>143</v>
       </c>
-      <c r="E144" s="119" t="s">
+      <c r="E144" s="116" t="s">
         <v>427</v>
       </c>
-      <c r="F144" s="118" t="s">
+      <c r="F144" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G144" s="118" t="s">
+      <c r="G144" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="118"/>
-      <c r="B145" s="118" t="s">
+      <c r="A145" s="115"/>
+      <c r="B145" s="115" t="s">
         <v>428</v>
       </c>
-      <c r="C145" s="118" t="s">
+      <c r="C145" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D145" s="118">
+      <c r="D145" s="115">
         <v>144</v>
       </c>
-      <c r="E145" s="119" t="s">
+      <c r="E145" s="116" t="s">
         <v>428</v>
       </c>
-      <c r="F145" s="118" t="s">
+      <c r="F145" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G145" s="118" t="s">
+      <c r="G145" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="118"/>
-      <c r="B146" s="118" t="s">
+      <c r="A146" s="115"/>
+      <c r="B146" s="115" t="s">
         <v>429</v>
       </c>
-      <c r="C146" s="118" t="s">
+      <c r="C146" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D146" s="118">
+      <c r="D146" s="115">
         <v>145</v>
       </c>
-      <c r="E146" s="119" t="s">
+      <c r="E146" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="F146" s="118" t="s">
+      <c r="F146" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G146" s="118" t="s">
+      <c r="G146" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="118"/>
-      <c r="B147" s="118" t="s">
+      <c r="A147" s="115"/>
+      <c r="B147" s="115" t="s">
         <v>430</v>
       </c>
-      <c r="C147" s="118" t="s">
+      <c r="C147" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D147" s="118">
+      <c r="D147" s="115">
         <v>146</v>
       </c>
-      <c r="E147" s="119" t="s">
+      <c r="E147" s="116" t="s">
         <v>430</v>
       </c>
-      <c r="F147" s="118" t="s">
+      <c r="F147" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G147" s="118" t="s">
+      <c r="G147" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="118"/>
-      <c r="B148" s="118" t="s">
+      <c r="A148" s="115"/>
+      <c r="B148" s="115" t="s">
         <v>431</v>
       </c>
-      <c r="C148" s="118" t="s">
+      <c r="C148" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D148" s="118">
+      <c r="D148" s="115">
         <v>147</v>
       </c>
-      <c r="E148" s="119" t="s">
+      <c r="E148" s="116" t="s">
         <v>431</v>
       </c>
-      <c r="F148" s="118" t="s">
+      <c r="F148" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G148" s="118" t="s">
+      <c r="G148" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="118"/>
-      <c r="B149" s="118" t="s">
+      <c r="A149" s="115"/>
+      <c r="B149" s="115" t="s">
         <v>432</v>
       </c>
-      <c r="C149" s="118" t="s">
+      <c r="C149" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D149" s="118">
+      <c r="D149" s="115">
         <v>148</v>
       </c>
-      <c r="E149" s="119" t="s">
+      <c r="E149" s="116" t="s">
         <v>432</v>
       </c>
-      <c r="F149" s="118" t="s">
+      <c r="F149" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G149" s="118" t="s">
+      <c r="G149" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="118"/>
-      <c r="B150" s="118" t="s">
+      <c r="A150" s="115"/>
+      <c r="B150" s="115" t="s">
         <v>433</v>
       </c>
-      <c r="C150" s="118" t="s">
+      <c r="C150" s="115" t="s">
         <v>419</v>
       </c>
-      <c r="D150" s="118">
+      <c r="D150" s="115">
         <v>149</v>
       </c>
-      <c r="E150" s="119" t="s">
+      <c r="E150" s="116" t="s">
         <v>433</v>
       </c>
-      <c r="F150" s="118" t="s">
+      <c r="F150" s="115" t="s">
         <v>388</v>
       </c>
-      <c r="G150" s="118" t="s">
+      <c r="G150" s="115" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="119"/>
-      <c r="B151" s="119" t="s">
+      <c r="A151" s="116"/>
+      <c r="B151" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="C151" s="119" t="s">
+      <c r="C151" s="116" t="s">
         <v>418</v>
       </c>
-      <c r="D151" s="119">
+      <c r="D151" s="116">
         <v>150</v>
       </c>
-      <c r="E151" s="119" t="s">
+      <c r="E151" s="116" t="s">
         <v>435</v>
       </c>
-      <c r="F151" s="119" t="s">
+      <c r="F151" s="116" t="s">
         <v>388</v>
       </c>
-      <c r="G151" s="119" t="s">
+      <c r="G151" s="116" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="120"/>
-      <c r="B152" s="120" t="s">
+      <c r="A152" s="117"/>
+      <c r="B152" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="C152" s="120" t="s">
+      <c r="C152" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="D152" s="120">
+      <c r="D152" s="117">
         <v>151</v>
       </c>
-      <c r="E152" s="120" t="s">
+      <c r="E152" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="F152" s="120" t="s">
+      <c r="F152" s="117" t="s">
         <v>388</v>
       </c>
-      <c r="G152" s="120" t="s">
+      <c r="G152" s="117" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="177"/>
-      <c r="B153" s="176" t="s">
+      <c r="A153" s="179"/>
+      <c r="B153" s="178" t="s">
         <v>448</v>
       </c>
-      <c r="C153" s="172" t="s">
+      <c r="C153" s="160" t="s">
         <v>447</v>
       </c>
-      <c r="D153" s="122">
+      <c r="D153" s="119">
         <v>152</v>
       </c>
-      <c r="E153" s="125" t="s">
+      <c r="E153" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="F153" s="127" t="s">
+      <c r="F153" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G153" s="127" t="s">
+      <c r="G153" s="124" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="177"/>
-      <c r="B154" s="177"/>
-      <c r="C154" s="172"/>
-      <c r="D154" s="122">
+      <c r="A154" s="179"/>
+      <c r="B154" s="179"/>
+      <c r="C154" s="160"/>
+      <c r="D154" s="119">
         <v>153</v>
       </c>
-      <c r="E154" s="126" t="s">
+      <c r="E154" s="123" t="s">
         <v>445</v>
       </c>
-      <c r="F154" s="127" t="s">
+      <c r="F154" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G154" s="127" t="s">
+      <c r="G154" s="124" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="177"/>
-      <c r="B155" s="177"/>
-      <c r="C155" s="172"/>
-      <c r="D155" s="122">
+      <c r="A155" s="179"/>
+      <c r="B155" s="179"/>
+      <c r="C155" s="160"/>
+      <c r="D155" s="119">
         <v>154</v>
       </c>
-      <c r="E155" s="126" t="s">
+      <c r="E155" s="123" t="s">
         <v>446</v>
       </c>
-      <c r="F155" s="127" t="s">
+      <c r="F155" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G155" s="127" t="s">
+      <c r="G155" s="124" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="129"/>
-      <c r="B156" s="130" t="s">
+      <c r="A156" s="126"/>
+      <c r="B156" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="C156" s="131" t="s">
+      <c r="C156" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D156" s="132">
+      <c r="D156" s="129">
         <v>155</v>
       </c>
-      <c r="E156" s="130" t="s">
+      <c r="E156" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="F156" s="134" t="s">
+      <c r="F156" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G156" s="128">
+      <c r="G156" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="129"/>
-      <c r="B157" s="130" t="s">
+      <c r="A157" s="126"/>
+      <c r="B157" s="127" t="s">
         <v>462</v>
       </c>
-      <c r="C157" s="131" t="s">
+      <c r="C157" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D157" s="132">
+      <c r="D157" s="129">
         <v>156</v>
       </c>
-      <c r="E157" s="130" t="s">
+      <c r="E157" s="127" t="s">
         <v>462</v>
       </c>
-      <c r="F157" s="134" t="s">
+      <c r="F157" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G157" s="128">
+      <c r="G157" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="129"/>
-      <c r="B158" s="130" t="s">
+      <c r="A158" s="126"/>
+      <c r="B158" s="127" t="s">
         <v>463</v>
       </c>
-      <c r="C158" s="131" t="s">
+      <c r="C158" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D158" s="132">
+      <c r="D158" s="129">
         <v>157</v>
       </c>
-      <c r="E158" s="130" t="s">
+      <c r="E158" s="127" t="s">
         <v>463</v>
       </c>
-      <c r="F158" s="134" t="s">
+      <c r="F158" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G158" s="128">
+      <c r="G158" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="129"/>
-      <c r="B159" s="130" t="s">
+      <c r="A159" s="126"/>
+      <c r="B159" s="127" t="s">
         <v>464</v>
       </c>
-      <c r="C159" s="131" t="s">
+      <c r="C159" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D159" s="132">
+      <c r="D159" s="129">
         <v>158</v>
       </c>
-      <c r="E159" s="130" t="s">
+      <c r="E159" s="127" t="s">
         <v>464</v>
       </c>
-      <c r="F159" s="134" t="s">
+      <c r="F159" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G159" s="128">
+      <c r="G159" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="129"/>
-      <c r="B160" s="130" t="s">
+      <c r="A160" s="126"/>
+      <c r="B160" s="127" t="s">
         <v>465</v>
       </c>
-      <c r="C160" s="131" t="s">
+      <c r="C160" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D160" s="132">
+      <c r="D160" s="129">
         <v>159</v>
       </c>
-      <c r="E160" s="130" t="s">
+      <c r="E160" s="127" t="s">
         <v>465</v>
       </c>
-      <c r="F160" s="134" t="s">
+      <c r="F160" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G160" s="128">
+      <c r="G160" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="129"/>
-      <c r="B161" s="130" t="s">
+      <c r="A161" s="126"/>
+      <c r="B161" s="127" t="s">
         <v>466</v>
       </c>
-      <c r="C161" s="131" t="s">
+      <c r="C161" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D161" s="132">
+      <c r="D161" s="129">
         <v>160</v>
       </c>
-      <c r="E161" s="130" t="s">
+      <c r="E161" s="127" t="s">
         <v>466</v>
       </c>
-      <c r="F161" s="134" t="s">
+      <c r="F161" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G161" s="128">
+      <c r="G161" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="129"/>
-      <c r="B162" s="130" t="s">
+      <c r="A162" s="126"/>
+      <c r="B162" s="127" t="s">
         <v>467</v>
       </c>
-      <c r="C162" s="131" t="s">
+      <c r="C162" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D162" s="132">
+      <c r="D162" s="129">
         <v>161</v>
       </c>
-      <c r="E162" s="130" t="s">
+      <c r="E162" s="127" t="s">
         <v>467</v>
       </c>
-      <c r="F162" s="134" t="s">
+      <c r="F162" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G162" s="128">
+      <c r="G162" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="129"/>
-      <c r="B163" s="130" t="s">
+      <c r="A163" s="126"/>
+      <c r="B163" s="127" t="s">
         <v>468</v>
       </c>
-      <c r="C163" s="131" t="s">
+      <c r="C163" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D163" s="132">
+      <c r="D163" s="129">
         <v>162</v>
       </c>
-      <c r="E163" s="130" t="s">
+      <c r="E163" s="127" t="s">
         <v>468</v>
       </c>
-      <c r="F163" s="134" t="s">
+      <c r="F163" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G163" s="128">
+      <c r="G163" s="125">
         <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="129"/>
-      <c r="B164" s="130" t="s">
+      <c r="A164" s="126"/>
+      <c r="B164" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="C164" s="131" t="s">
+      <c r="C164" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D164" s="132">
+      <c r="D164" s="129">
         <v>163</v>
       </c>
-      <c r="E164" s="130" t="s">
+      <c r="E164" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="F164" s="134" t="s">
+      <c r="F164" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G164" s="133">
+      <c r="G164" s="130">
         <v>300</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="129"/>
-      <c r="B165" s="130" t="s">
+      <c r="A165" s="126"/>
+      <c r="B165" s="127" t="s">
         <v>471</v>
       </c>
-      <c r="C165" s="131" t="s">
+      <c r="C165" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D165" s="132">
+      <c r="D165" s="129">
         <v>164</v>
       </c>
-      <c r="E165" s="130" t="s">
+      <c r="E165" s="127" t="s">
         <v>471</v>
       </c>
-      <c r="F165" s="134" t="s">
+      <c r="F165" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="G165" s="133">
+      <c r="G165" s="130">
         <v>300</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="129"/>
-      <c r="B166" s="130" t="s">
+      <c r="A166" s="126"/>
+      <c r="B166" s="127" t="s">
         <v>472</v>
       </c>
-      <c r="C166" s="131" t="s">
+      <c r="C166" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D166" s="132">
+      <c r="D166" s="129">
         <v>165</v>
       </c>
-      <c r="E166" s="130" t="s">
+      <c r="E166" s="127" t="s">
         <v>472</v>
       </c>
-      <c r="F166" s="134" t="s">
+      <c r="F166" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G166" s="133">
+      <c r="G166" s="130">
         <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="129"/>
-      <c r="B167" s="130" t="s">
+      <c r="A167" s="126"/>
+      <c r="B167" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="C167" s="131" t="s">
+      <c r="C167" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="D167" s="132">
+      <c r="D167" s="129">
         <v>166</v>
       </c>
-      <c r="E167" s="130" t="s">
+      <c r="E167" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="F167" s="134" t="s">
+      <c r="F167" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="G167" s="133">
+      <c r="G167" s="130">
         <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="166"/>
-      <c r="B168" s="166" t="s">
+      <c r="A168" s="163"/>
+      <c r="B168" s="163" t="s">
         <v>483</v>
       </c>
-      <c r="C168" s="166" t="s">
+      <c r="C168" s="163" t="s">
         <v>447</v>
       </c>
-      <c r="D168" s="132">
+      <c r="D168" s="129">
         <v>167</v>
       </c>
-      <c r="E168" s="134" t="s">
+      <c r="E168" s="131" t="s">
         <v>476</v>
       </c>
-      <c r="F168" s="127" t="s">
+      <c r="F168" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G168" s="127" t="s">
+      <c r="G168" s="124" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="170"/>
-      <c r="B169" s="167"/>
-      <c r="C169" s="167"/>
-      <c r="D169" s="132">
+      <c r="A169" s="164"/>
+      <c r="B169" s="175"/>
+      <c r="C169" s="175"/>
+      <c r="D169" s="129">
         <v>168</v>
       </c>
-      <c r="E169" s="134" t="s">
+      <c r="E169" s="131" t="s">
         <v>477</v>
       </c>
-      <c r="F169" s="127" t="s">
+      <c r="F169" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="G169" s="127" t="s">
+      <c r="G169" s="124" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="170"/>
-      <c r="B170" s="167"/>
-      <c r="C170" s="167"/>
-      <c r="D170" s="132">
+      <c r="A170" s="164"/>
+      <c r="B170" s="175"/>
+      <c r="C170" s="175"/>
+      <c r="D170" s="129">
         <v>169</v>
       </c>
-      <c r="E170" s="134" t="s">
+      <c r="E170" s="131" t="s">
         <v>478</v>
       </c>
-      <c r="F170" s="127" t="s">
+      <c r="F170" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="G170" s="127" t="s">
+      <c r="G170" s="124" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="170"/>
-      <c r="B171" s="167"/>
-      <c r="C171" s="167"/>
-      <c r="D171" s="132">
+      <c r="A171" s="164"/>
+      <c r="B171" s="175"/>
+      <c r="C171" s="175"/>
+      <c r="D171" s="129">
         <v>170</v>
       </c>
-      <c r="E171" s="134" t="s">
+      <c r="E171" s="131" t="s">
         <v>479</v>
       </c>
-      <c r="F171" s="127" t="s">
+      <c r="F171" s="124" t="s">
         <v>485</v>
       </c>
-      <c r="G171" s="127" t="s">
+      <c r="G171" s="124" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="170"/>
-      <c r="B172" s="167"/>
-      <c r="C172" s="167"/>
-      <c r="D172" s="132">
+      <c r="A172" s="164"/>
+      <c r="B172" s="175"/>
+      <c r="C172" s="175"/>
+      <c r="D172" s="129">
         <v>171</v>
       </c>
-      <c r="E172" s="134" t="s">
+      <c r="E172" s="131" t="s">
         <v>480</v>
       </c>
-      <c r="F172" s="127" t="s">
+      <c r="F172" s="124" t="s">
         <v>486</v>
       </c>
-      <c r="G172" s="127" t="s">
+      <c r="G172" s="124" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="170"/>
-      <c r="B173" s="167"/>
-      <c r="C173" s="167"/>
-      <c r="D173" s="132">
+      <c r="A173" s="164"/>
+      <c r="B173" s="175"/>
+      <c r="C173" s="175"/>
+      <c r="D173" s="129">
         <v>172</v>
       </c>
-      <c r="E173" s="134" t="s">
+      <c r="E173" s="131" t="s">
         <v>481</v>
       </c>
-      <c r="F173" s="127" t="s">
+      <c r="F173" s="124" t="s">
         <v>487</v>
       </c>
-      <c r="G173" s="127" t="s">
+      <c r="G173" s="124" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="171"/>
-      <c r="B174" s="168"/>
-      <c r="C174" s="168"/>
-      <c r="D174" s="132">
+      <c r="A174" s="169"/>
+      <c r="B174" s="176"/>
+      <c r="C174" s="176"/>
+      <c r="D174" s="129">
         <v>173</v>
       </c>
-      <c r="E174" s="134" t="s">
+      <c r="E174" s="131" t="s">
         <v>482</v>
       </c>
-      <c r="F174" s="127" t="s">
+      <c r="F174" s="124" t="s">
         <v>488</v>
       </c>
-      <c r="G174" s="127" t="s">
+      <c r="G174" s="124" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="166"/>
-      <c r="B175" s="166" t="s">
+      <c r="A175" s="163"/>
+      <c r="B175" s="163" t="s">
         <v>489</v>
       </c>
-      <c r="C175" s="166" t="s">
+      <c r="C175" s="163" t="s">
         <v>447</v>
       </c>
-      <c r="D175" s="132">
+      <c r="D175" s="129">
         <v>174</v>
       </c>
-      <c r="E175" s="135" t="s">
+      <c r="E175" s="132" t="s">
         <v>476</v>
       </c>
-      <c r="F175" s="127" t="s">
+      <c r="F175" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G175" s="127" t="s">
+      <c r="G175" s="124" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="170"/>
-      <c r="B176" s="167"/>
-      <c r="C176" s="167"/>
-      <c r="D176" s="132">
+      <c r="A176" s="164"/>
+      <c r="B176" s="175"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="129">
         <v>175</v>
       </c>
-      <c r="E176" s="135" t="s">
+      <c r="E176" s="132" t="s">
         <v>477</v>
       </c>
-      <c r="F176" s="127" t="s">
+      <c r="F176" s="124" t="s">
         <v>490</v>
       </c>
-      <c r="G176" s="127" t="s">
+      <c r="G176" s="124" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="170"/>
-      <c r="B177" s="167"/>
-      <c r="C177" s="167"/>
-      <c r="D177" s="132">
+      <c r="A177" s="164"/>
+      <c r="B177" s="175"/>
+      <c r="C177" s="175"/>
+      <c r="D177" s="129">
         <v>176</v>
       </c>
-      <c r="E177" s="135" t="s">
+      <c r="E177" s="132" t="s">
         <v>478</v>
       </c>
-      <c r="F177" s="127" t="s">
+      <c r="F177" s="124" t="s">
         <v>491</v>
       </c>
-      <c r="G177" s="127" t="s">
+      <c r="G177" s="124" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="170"/>
-      <c r="B178" s="167"/>
-      <c r="C178" s="167"/>
-      <c r="D178" s="132">
+      <c r="A178" s="164"/>
+      <c r="B178" s="175"/>
+      <c r="C178" s="175"/>
+      <c r="D178" s="129">
         <v>177</v>
       </c>
-      <c r="E178" s="135" t="s">
+      <c r="E178" s="132" t="s">
         <v>479</v>
       </c>
-      <c r="F178" s="127" t="s">
+      <c r="F178" s="124" t="s">
         <v>492</v>
       </c>
-      <c r="G178" s="127" t="s">
+      <c r="G178" s="124" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="170"/>
-      <c r="B179" s="167"/>
-      <c r="C179" s="167"/>
-      <c r="D179" s="132">
+      <c r="A179" s="164"/>
+      <c r="B179" s="175"/>
+      <c r="C179" s="175"/>
+      <c r="D179" s="129">
         <v>178</v>
       </c>
-      <c r="E179" s="135" t="s">
+      <c r="E179" s="132" t="s">
         <v>480</v>
       </c>
-      <c r="F179" s="127" t="s">
+      <c r="F179" s="124" t="s">
         <v>494</v>
       </c>
-      <c r="G179" s="127" t="s">
+      <c r="G179" s="124" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="170"/>
-      <c r="B180" s="167"/>
-      <c r="C180" s="167"/>
-      <c r="D180" s="132">
+      <c r="A180" s="164"/>
+      <c r="B180" s="175"/>
+      <c r="C180" s="175"/>
+      <c r="D180" s="129">
         <v>179</v>
       </c>
-      <c r="E180" s="135" t="s">
+      <c r="E180" s="132" t="s">
         <v>481</v>
       </c>
-      <c r="F180" s="127" t="s">
+      <c r="F180" s="124" t="s">
         <v>487</v>
       </c>
-      <c r="G180" s="127" t="s">
+      <c r="G180" s="124" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="171"/>
-      <c r="B181" s="168"/>
-      <c r="C181" s="168"/>
-      <c r="D181" s="132">
+      <c r="A181" s="169"/>
+      <c r="B181" s="176"/>
+      <c r="C181" s="176"/>
+      <c r="D181" s="129">
         <v>180</v>
       </c>
-      <c r="E181" s="135" t="s">
+      <c r="E181" s="132" t="s">
         <v>482</v>
       </c>
-      <c r="F181" s="127" t="s">
+      <c r="F181" s="124" t="s">
         <v>493</v>
       </c>
-      <c r="G181" s="127" t="s">
+      <c r="G181" s="124" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="142"/>
-      <c r="B182" s="140" t="s">
+      <c r="A182" s="139"/>
+      <c r="B182" s="137" t="s">
         <v>496</v>
       </c>
-      <c r="C182" s="139" t="s">
+      <c r="C182" s="136" t="s">
         <v>495</v>
       </c>
-      <c r="D182" s="132">
+      <c r="D182" s="129">
         <v>181</v>
       </c>
-      <c r="E182" s="140" t="s">
+      <c r="E182" s="137" t="s">
         <v>477</v>
       </c>
-      <c r="F182" s="139" t="s">
+      <c r="F182" s="136" t="s">
         <v>497</v>
       </c>
-      <c r="G182" s="139" t="s">
+      <c r="G182" s="136" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="142"/>
-      <c r="B183" s="154" t="s">
+      <c r="A183" s="139"/>
+      <c r="B183" s="151" t="s">
         <v>504</v>
       </c>
-      <c r="C183" s="149" t="s">
+      <c r="C183" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="D183" s="132">
+      <c r="D183" s="129">
         <v>182</v>
       </c>
-      <c r="E183" s="154" t="s">
+      <c r="E183" s="151" t="s">
         <v>504</v>
       </c>
-      <c r="F183" s="149" t="s">
+      <c r="F183" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="G183" s="149" t="s">
+      <c r="G183" s="146" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="142"/>
-      <c r="B184" s="151" t="s">
+      <c r="A184" s="139"/>
+      <c r="B184" s="148" t="s">
         <v>545</v>
       </c>
-      <c r="C184" s="151" t="s">
+      <c r="C184" s="148" t="s">
         <v>506</v>
       </c>
-      <c r="D184" s="132">
+      <c r="D184" s="129">
         <v>183</v>
       </c>
-      <c r="E184" s="151" t="s">
+      <c r="E184" s="148" t="s">
         <v>505</v>
       </c>
-      <c r="F184" s="151" t="s">
+      <c r="F184" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="G184" s="151" t="s">
+      <c r="G184" s="148" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="169"/>
-      <c r="B185" s="166" t="s">
+      <c r="A185" s="183"/>
+      <c r="B185" s="163" t="s">
         <v>544</v>
       </c>
-      <c r="C185" s="163" t="s">
+      <c r="C185" s="180" t="s">
         <v>508</v>
       </c>
-      <c r="D185" s="132">
+      <c r="D185" s="129">
         <v>184</v>
       </c>
-      <c r="E185" s="157" t="s">
+      <c r="E185" s="154" t="s">
         <v>546</v>
       </c>
-      <c r="F185" s="160" t="s">
+      <c r="F185" s="157" t="s">
         <v>547</v>
       </c>
-      <c r="G185" s="127" t="s">
+      <c r="G185" s="124" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="170"/>
-      <c r="B186" s="167"/>
-      <c r="C186" s="164"/>
-      <c r="D186" s="132">
+      <c r="A186" s="164"/>
+      <c r="B186" s="175"/>
+      <c r="C186" s="181"/>
+      <c r="D186" s="129">
         <v>185</v>
       </c>
-      <c r="E186" s="155" t="s">
+      <c r="E186" s="152" t="s">
         <v>507</v>
       </c>
-      <c r="F186" s="155" t="s">
+      <c r="F186" s="152" t="s">
         <v>509</v>
       </c>
-      <c r="G186" s="127" t="s">
+      <c r="G186" s="124" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="170"/>
-      <c r="B187" s="167"/>
-      <c r="C187" s="164"/>
-      <c r="D187" s="132">
+      <c r="A187" s="164"/>
+      <c r="B187" s="175"/>
+      <c r="C187" s="181"/>
+      <c r="D187" s="129">
         <v>186</v>
       </c>
-      <c r="E187" s="155" t="s">
+      <c r="E187" s="152" t="s">
         <v>511</v>
       </c>
-      <c r="F187" s="155" t="s">
+      <c r="F187" s="152" t="s">
         <v>512</v>
       </c>
-      <c r="G187" s="127" t="s">
+      <c r="G187" s="124" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="170"/>
-      <c r="B188" s="167"/>
-      <c r="C188" s="164"/>
-      <c r="D188" s="132">
+      <c r="A188" s="164"/>
+      <c r="B188" s="175"/>
+      <c r="C188" s="181"/>
+      <c r="D188" s="129">
         <v>187</v>
       </c>
-      <c r="E188" s="155" t="s">
+      <c r="E188" s="152" t="s">
         <v>513</v>
       </c>
-      <c r="F188" s="155" t="s">
+      <c r="F188" s="152" t="s">
         <v>514</v>
       </c>
-      <c r="G188" s="127" t="s">
+      <c r="G188" s="124" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="170"/>
-      <c r="B189" s="167"/>
-      <c r="C189" s="164"/>
-      <c r="D189" s="132">
+      <c r="A189" s="164"/>
+      <c r="B189" s="175"/>
+      <c r="C189" s="181"/>
+      <c r="D189" s="129">
         <v>188</v>
       </c>
-      <c r="E189" s="155" t="s">
+      <c r="E189" s="152" t="s">
         <v>516</v>
       </c>
-      <c r="F189" s="155" t="s">
+      <c r="F189" s="152" t="s">
         <v>517</v>
       </c>
-      <c r="G189" s="127" t="s">
+      <c r="G189" s="124" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="170"/>
-      <c r="B190" s="167"/>
-      <c r="C190" s="164"/>
-      <c r="D190" s="132">
+      <c r="A190" s="164"/>
+      <c r="B190" s="175"/>
+      <c r="C190" s="181"/>
+      <c r="D190" s="129">
         <v>189</v>
       </c>
-      <c r="E190" s="155" t="s">
+      <c r="E190" s="152" t="s">
         <v>519</v>
       </c>
-      <c r="F190" s="155" t="s">
+      <c r="F190" s="152" t="s">
         <v>520</v>
       </c>
-      <c r="G190" s="127" t="s">
+      <c r="G190" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="170"/>
-      <c r="B191" s="167"/>
-      <c r="C191" s="164"/>
-      <c r="D191" s="132">
+      <c r="A191" s="164"/>
+      <c r="B191" s="175"/>
+      <c r="C191" s="181"/>
+      <c r="D191" s="129">
         <v>190</v>
       </c>
-      <c r="E191" s="155" t="s">
+      <c r="E191" s="152" t="s">
         <v>522</v>
       </c>
-      <c r="F191" s="155" t="s">
+      <c r="F191" s="152" t="s">
         <v>523</v>
       </c>
-      <c r="G191" s="127" t="s">
+      <c r="G191" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="170"/>
-      <c r="B192" s="167"/>
-      <c r="C192" s="164"/>
-      <c r="D192" s="132">
+      <c r="A192" s="164"/>
+      <c r="B192" s="175"/>
+      <c r="C192" s="181"/>
+      <c r="D192" s="129">
         <v>191</v>
       </c>
-      <c r="E192" s="156" t="s">
+      <c r="E192" s="153" t="s">
         <v>524</v>
       </c>
-      <c r="F192" s="155" t="s">
+      <c r="F192" s="152" t="s">
         <v>525</v>
       </c>
-      <c r="G192" s="127" t="s">
+      <c r="G192" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="170"/>
-      <c r="B193" s="167"/>
-      <c r="C193" s="164"/>
-      <c r="D193" s="132">
+      <c r="A193" s="164"/>
+      <c r="B193" s="175"/>
+      <c r="C193" s="181"/>
+      <c r="D193" s="129">
         <v>192</v>
       </c>
-      <c r="E193" s="156" t="s">
+      <c r="E193" s="153" t="s">
         <v>526</v>
       </c>
-      <c r="F193" s="155" t="s">
+      <c r="F193" s="152" t="s">
         <v>527</v>
       </c>
-      <c r="G193" s="127" t="s">
+      <c r="G193" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="170"/>
-      <c r="B194" s="167"/>
-      <c r="C194" s="164"/>
-      <c r="D194" s="132">
+      <c r="A194" s="164"/>
+      <c r="B194" s="175"/>
+      <c r="C194" s="181"/>
+      <c r="D194" s="129">
         <v>193</v>
       </c>
-      <c r="E194" s="156" t="s">
+      <c r="E194" s="153" t="s">
         <v>528</v>
       </c>
-      <c r="F194" s="155" t="s">
+      <c r="F194" s="152" t="s">
         <v>529</v>
       </c>
-      <c r="G194" s="127" t="s">
+      <c r="G194" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="170"/>
-      <c r="B195" s="167"/>
-      <c r="C195" s="164"/>
-      <c r="D195" s="132">
+      <c r="A195" s="164"/>
+      <c r="B195" s="175"/>
+      <c r="C195" s="181"/>
+      <c r="D195" s="129">
         <v>194</v>
       </c>
-      <c r="E195" s="156" t="s">
+      <c r="E195" s="153" t="s">
         <v>530</v>
       </c>
-      <c r="F195" s="156" t="s">
+      <c r="F195" s="153" t="s">
         <v>531</v>
       </c>
-      <c r="G195" s="127" t="s">
+      <c r="G195" s="124" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="170"/>
-      <c r="B196" s="167"/>
-      <c r="C196" s="164"/>
-      <c r="D196" s="132">
+      <c r="A196" s="164"/>
+      <c r="B196" s="175"/>
+      <c r="C196" s="181"/>
+      <c r="D196" s="129">
         <v>195</v>
       </c>
-      <c r="E196" s="156" t="s">
+      <c r="E196" s="153" t="s">
         <v>533</v>
       </c>
-      <c r="F196" s="155" t="s">
+      <c r="F196" s="152" t="s">
         <v>534</v>
       </c>
-      <c r="G196" s="127" t="s">
+      <c r="G196" s="124" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="170"/>
-      <c r="B197" s="167"/>
-      <c r="C197" s="164"/>
-      <c r="D197" s="132">
+      <c r="A197" s="164"/>
+      <c r="B197" s="175"/>
+      <c r="C197" s="181"/>
+      <c r="D197" s="129">
         <v>196</v>
       </c>
-      <c r="E197" s="156" t="s">
+      <c r="E197" s="153" t="s">
         <v>536</v>
       </c>
-      <c r="F197" s="155" t="s">
+      <c r="F197" s="152" t="s">
         <v>537</v>
       </c>
-      <c r="G197" s="127" t="s">
+      <c r="G197" s="124" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="170"/>
-      <c r="B198" s="167"/>
-      <c r="C198" s="164"/>
-      <c r="D198" s="132">
+      <c r="A198" s="164"/>
+      <c r="B198" s="175"/>
+      <c r="C198" s="181"/>
+      <c r="D198" s="129">
         <v>197</v>
       </c>
-      <c r="E198" s="156" t="s">
+      <c r="E198" s="153" t="s">
         <v>539</v>
       </c>
-      <c r="F198" s="155" t="s">
+      <c r="F198" s="152" t="s">
         <v>540</v>
       </c>
-      <c r="G198" s="127" t="s">
+      <c r="G198" s="124" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="171"/>
-      <c r="B199" s="168"/>
-      <c r="C199" s="165"/>
-      <c r="D199" s="132">
+      <c r="A199" s="169"/>
+      <c r="B199" s="176"/>
+      <c r="C199" s="182"/>
+      <c r="D199" s="129">
         <v>198</v>
       </c>
-      <c r="E199" s="156" t="s">
+      <c r="E199" s="153" t="s">
         <v>541</v>
       </c>
-      <c r="F199" s="155" t="s">
+      <c r="F199" s="152" t="s">
         <v>542</v>
       </c>
-      <c r="G199" s="127" t="s">
+      <c r="G199" s="124" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="162"/>
-      <c r="B200" s="162" t="s">
+      <c r="A200" s="161"/>
+      <c r="B200" s="161" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="162" t="s">
+      <c r="C200" s="161" t="s">
         <v>554</v>
       </c>
-      <c r="D200" s="132">
+      <c r="D200" s="129">
         <v>199</v>
       </c>
-      <c r="E200" s="161" t="s">
+      <c r="E200" s="158" t="s">
         <v>549</v>
       </c>
-      <c r="F200" s="161" t="s">
+      <c r="F200" s="158" t="s">
         <v>553</v>
       </c>
-      <c r="G200" s="161" t="s">
+      <c r="G200" s="158" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="162"/>
-      <c r="B201" s="162"/>
-      <c r="C201" s="162"/>
-      <c r="D201" s="132">
+      <c r="A201" s="161"/>
+      <c r="B201" s="161"/>
+      <c r="C201" s="161"/>
+      <c r="D201" s="129">
         <v>200</v>
       </c>
-      <c r="E201" s="161" t="s">
+      <c r="E201" s="158" t="s">
         <v>550</v>
       </c>
-      <c r="F201" s="161" t="s">
+      <c r="F201" s="158" t="s">
         <v>553</v>
       </c>
-      <c r="G201" s="161" t="s">
+      <c r="G201" s="158" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="162"/>
-      <c r="B202" s="162"/>
-      <c r="C202" s="162"/>
-      <c r="D202" s="132">
+      <c r="A202" s="161"/>
+      <c r="B202" s="161"/>
+      <c r="C202" s="161"/>
+      <c r="D202" s="129">
         <v>201</v>
       </c>
-      <c r="E202" s="161" t="s">
+      <c r="E202" s="158" t="s">
         <v>551</v>
       </c>
-      <c r="F202" s="161" t="s">
+      <c r="F202" s="158" t="s">
         <v>553</v>
       </c>
-      <c r="G202" s="161" t="s">
+      <c r="G202" s="158" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="162"/>
-      <c r="B203" s="162"/>
-      <c r="C203" s="162"/>
-      <c r="D203" s="132">
+      <c r="A203" s="161"/>
+      <c r="B203" s="161"/>
+      <c r="C203" s="161"/>
+      <c r="D203" s="129">
         <v>202</v>
       </c>
-      <c r="E203" s="161" t="s">
+      <c r="E203" s="158" t="s">
         <v>552</v>
       </c>
-      <c r="F203" s="161" t="s">
+      <c r="F203" s="158" t="s">
         <v>553</v>
       </c>
-      <c r="G203" s="161" t="s">
+      <c r="G203" s="158" t="s">
         <v>553</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B200:B203"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C185:C199"/>
+    <mergeCell ref="B185:B199"/>
+    <mergeCell ref="A185:A199"/>
+    <mergeCell ref="C40:C45"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="B175:B181"/>
+    <mergeCell ref="C175:C181"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A168:A174"/>
+    <mergeCell ref="B168:B174"/>
+    <mergeCell ref="C168:C174"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="B81:B84"/>
@@ -8804,47 +8853,6 @@
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A72:A78"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C40:C45"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="A175:A181"/>
-    <mergeCell ref="B175:B181"/>
-    <mergeCell ref="C175:C181"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A168:A174"/>
-    <mergeCell ref="B168:B174"/>
-    <mergeCell ref="C168:C174"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B200:B203"/>
-    <mergeCell ref="A200:A203"/>
-    <mergeCell ref="C200:C203"/>
-    <mergeCell ref="C185:C199"/>
-    <mergeCell ref="B185:B199"/>
-    <mergeCell ref="A185:A199"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8864,338 +8872,338 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="113" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="110" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="114">
+      <c r="D1" s="111">
         <v>122</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="G1" s="85" t="s">
+      <c r="G1" s="82" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="113" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="110" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="114">
+      <c r="D2" s="111">
         <v>123</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="92" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="92" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="99"/>
-      <c r="B3" s="113" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="110" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="111">
         <v>124</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="82" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
-      <c r="B4" s="113" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="110" t="s">
         <v>351</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="111">
         <v>125</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="92" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="82" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="82" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="113" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="111">
         <v>126</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="82" t="s">
         <v>332</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
-      <c r="B6" s="113" t="s">
+      <c r="A6" s="96"/>
+      <c r="B6" s="110" t="s">
         <v>353</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="114">
+      <c r="D6" s="111">
         <v>127</v>
       </c>
-      <c r="E6" s="95" t="s">
+      <c r="E6" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
-      <c r="B7" s="113" t="s">
+      <c r="A7" s="96"/>
+      <c r="B7" s="110" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="107" t="s">
+      <c r="C7" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D7" s="111">
         <v>128</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="F7" s="98" t="s">
+      <c r="F7" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="G7" s="98" t="s">
+      <c r="G7" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="99"/>
-      <c r="B8" s="113" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="110" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="114">
+      <c r="D8" s="111">
         <v>129</v>
       </c>
-      <c r="E8" s="95" t="s">
+      <c r="E8" s="92" t="s">
         <v>277</v>
       </c>
-      <c r="F8" s="98" t="s">
+      <c r="F8" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="95" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="113" t="s">
+      <c r="A9" s="96"/>
+      <c r="B9" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="114">
+      <c r="D9" s="111">
         <v>130</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="99"/>
-      <c r="B10" s="113" t="s">
+      <c r="A10" s="96"/>
+      <c r="B10" s="110" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="114">
+      <c r="D10" s="111">
         <v>131</v>
       </c>
-      <c r="E10" s="95" t="s">
+      <c r="E10" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="99"/>
-      <c r="B11" s="113" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="110" t="s">
         <v>358</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C11" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="114">
+      <c r="D11" s="111">
         <v>132</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="98" t="s">
+      <c r="G11" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="99"/>
-      <c r="B12" s="113" t="s">
+      <c r="A12" s="96"/>
+      <c r="B12" s="110" t="s">
         <v>359</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C12" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="114">
+      <c r="D12" s="111">
         <v>133</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="95" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="99"/>
-      <c r="B13" s="113" t="s">
+      <c r="A13" s="96"/>
+      <c r="B13" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="111">
         <v>134</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="99"/>
-      <c r="B14" s="113" t="s">
+      <c r="A14" s="96"/>
+      <c r="B14" s="110" t="s">
         <v>362</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D14" s="114">
+      <c r="D14" s="111">
         <v>135</v>
       </c>
-      <c r="E14" s="95" t="s">
+      <c r="E14" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
-      <c r="B15" s="113" t="s">
+      <c r="A15" s="96"/>
+      <c r="B15" s="110" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="114">
+      <c r="D15" s="111">
         <v>136</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="95" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
-      <c r="B16" s="113" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="110" t="s">
         <v>360</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="114">
+      <c r="D16" s="111">
         <v>137</v>
       </c>
-      <c r="E16" s="95" t="s">
+      <c r="E16" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="95" t="s">
         <v>334</v>
       </c>
-      <c r="G16" s="98" t="s">
+      <c r="G16" s="95" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9696,7 +9704,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
         <v>436</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -9713,7 +9721,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="66" t="s">
         <v>437</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -10615,7 +10623,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="91" t="s">
         <v>135</v>
       </c>
       <c r="B14" s="17">
@@ -10795,7 +10803,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="86" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="17">
@@ -10815,7 +10823,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="86" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="17">
@@ -10895,7 +10903,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="68" t="s">
         <v>121</v>
       </c>
       <c r="B28" s="17">
@@ -11275,7 +11283,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="81" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="17">
@@ -11295,7 +11303,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="86" t="s">
+      <c r="A48" s="83" t="s">
         <v>326</v>
       </c>
       <c r="B48" s="17">
@@ -11315,7 +11323,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="100" t="s">
+      <c r="A49" s="97" t="s">
         <v>325</v>
       </c>
       <c r="B49" s="17">
@@ -11335,7 +11343,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="80" t="s">
         <v>301</v>
       </c>
       <c r="B50" s="17">
@@ -11355,7 +11363,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="80" t="s">
         <v>302</v>
       </c>
       <c r="B51" s="17">
@@ -11375,7 +11383,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="80" t="s">
         <v>303</v>
       </c>
       <c r="B52" s="17">
@@ -11395,7 +11403,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="80" t="s">
         <v>304</v>
       </c>
       <c r="B53" s="17">
@@ -11415,7 +11423,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="80" t="s">
         <v>305</v>
       </c>
       <c r="B54" s="17">
@@ -11435,7 +11443,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="80" t="s">
         <v>306</v>
       </c>
       <c r="B55" s="17">
@@ -11455,7 +11463,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="80" t="s">
         <v>307</v>
       </c>
       <c r="B56" s="17">
@@ -11475,7 +11483,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="80" t="s">
         <v>308</v>
       </c>
       <c r="B57" s="17">
@@ -11495,7 +11503,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="80" t="s">
         <v>309</v>
       </c>
       <c r="B58" s="17">
@@ -11515,7 +11523,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="80" t="s">
         <v>310</v>
       </c>
       <c r="B59" s="17">
@@ -11535,7 +11543,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="80" t="s">
         <v>311</v>
       </c>
       <c r="B60" s="17">
@@ -11555,7 +11563,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="80" t="s">
         <v>312</v>
       </c>
       <c r="B61" s="17">
@@ -11575,7 +11583,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="80" t="s">
         <v>313</v>
       </c>
       <c r="B62" s="17">
@@ -11595,7 +11603,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="80" t="s">
         <v>314</v>
       </c>
       <c r="B63" s="17">
@@ -11615,7 +11623,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="80" t="s">
         <v>315</v>
       </c>
       <c r="B64" s="17">
@@ -11635,7 +11643,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="80" t="s">
         <v>320</v>
       </c>
       <c r="B65" s="17">
@@ -11655,7 +11663,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="80" t="s">
         <v>321</v>
       </c>
       <c r="B66" s="17">
@@ -11675,7 +11683,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="80" t="s">
         <v>316</v>
       </c>
       <c r="B67" s="17">
@@ -11695,7 +11703,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="80" t="s">
         <v>317</v>
       </c>
       <c r="B68" s="17">
@@ -11715,7 +11723,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="80" t="s">
         <v>318</v>
       </c>
       <c r="B69" s="17">
@@ -11735,7 +11743,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="80" t="s">
         <v>319</v>
       </c>
       <c r="B70" s="17">
@@ -11755,7 +11763,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="80" t="s">
         <v>322</v>
       </c>
       <c r="B71" s="17">
@@ -11775,7 +11783,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="80" t="s">
         <v>323</v>
       </c>
       <c r="B72" s="17">
@@ -11795,7 +11803,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="80" t="s">
         <v>324</v>
       </c>
       <c r="B73" s="17">
@@ -11875,7 +11883,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="82" t="s">
+      <c r="A77" s="79" t="s">
         <v>300</v>
       </c>
       <c r="B77" s="17">
@@ -11895,7 +11903,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="123" t="s">
+      <c r="A78" s="120" t="s">
         <v>164</v>
       </c>
       <c r="B78" s="16">
@@ -11918,7 +11926,7 @@
       <c r="A79" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="B79" s="124">
+      <c r="B79" s="121">
         <v>5</v>
       </c>
       <c r="C79" s="17">
@@ -11938,7 +11946,7 @@
       <c r="A80" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="B80" s="124">
+      <c r="B80" s="121">
         <v>5</v>
       </c>
       <c r="C80" s="17">
@@ -11955,202 +11963,202 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="133" t="s">
         <v>476</v>
       </c>
-      <c r="B81" s="137">
-        <v>0</v>
-      </c>
-      <c r="C81" s="138">
+      <c r="B81" s="134">
+        <v>0</v>
+      </c>
+      <c r="C81" s="135">
         <v>14</v>
       </c>
-      <c r="D81" s="137">
-        <v>0</v>
-      </c>
-      <c r="E81" s="137">
-        <v>0</v>
-      </c>
-      <c r="F81" s="137">
+      <c r="D81" s="134">
+        <v>0</v>
+      </c>
+      <c r="E81" s="134">
+        <v>0</v>
+      </c>
+      <c r="F81" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="136" t="s">
+      <c r="A82" s="133" t="s">
         <v>477</v>
       </c>
-      <c r="B82" s="137">
-        <v>0</v>
-      </c>
-      <c r="C82" s="138">
+      <c r="B82" s="134">
+        <v>0</v>
+      </c>
+      <c r="C82" s="135">
         <v>14</v>
       </c>
-      <c r="D82" s="137">
-        <v>0</v>
-      </c>
-      <c r="E82" s="137">
+      <c r="D82" s="134">
+        <v>0</v>
+      </c>
+      <c r="E82" s="134">
         <v>1</v>
       </c>
-      <c r="F82" s="137">
+      <c r="F82" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="136" t="s">
+      <c r="A83" s="133" t="s">
         <v>478</v>
       </c>
-      <c r="B83" s="137">
-        <v>0</v>
-      </c>
-      <c r="C83" s="138">
+      <c r="B83" s="134">
+        <v>0</v>
+      </c>
+      <c r="C83" s="135">
         <v>14</v>
       </c>
-      <c r="D83" s="137">
-        <v>0</v>
-      </c>
-      <c r="E83" s="137">
+      <c r="D83" s="134">
+        <v>0</v>
+      </c>
+      <c r="E83" s="134">
         <v>2</v>
       </c>
-      <c r="F83" s="137">
+      <c r="F83" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="136" t="s">
+      <c r="A84" s="133" t="s">
         <v>479</v>
       </c>
-      <c r="B84" s="137">
-        <v>0</v>
-      </c>
-      <c r="C84" s="138">
+      <c r="B84" s="134">
+        <v>0</v>
+      </c>
+      <c r="C84" s="135">
         <v>14</v>
       </c>
-      <c r="D84" s="137">
-        <v>0</v>
-      </c>
-      <c r="E84" s="137">
+      <c r="D84" s="134">
+        <v>0</v>
+      </c>
+      <c r="E84" s="134">
         <v>3</v>
       </c>
-      <c r="F84" s="137">
+      <c r="F84" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="133" t="s">
         <v>480</v>
       </c>
-      <c r="B85" s="137">
-        <v>0</v>
-      </c>
-      <c r="C85" s="138">
+      <c r="B85" s="134">
+        <v>0</v>
+      </c>
+      <c r="C85" s="135">
         <v>14</v>
       </c>
-      <c r="D85" s="137">
-        <v>0</v>
-      </c>
-      <c r="E85" s="137">
+      <c r="D85" s="134">
+        <v>0</v>
+      </c>
+      <c r="E85" s="134">
         <v>4</v>
       </c>
-      <c r="F85" s="137">
+      <c r="F85" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="136" t="s">
+      <c r="A86" s="133" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="137">
-        <v>0</v>
-      </c>
-      <c r="C86" s="138">
+      <c r="B86" s="134">
+        <v>0</v>
+      </c>
+      <c r="C86" s="135">
         <v>14</v>
       </c>
-      <c r="D86" s="137">
-        <v>0</v>
-      </c>
-      <c r="E86" s="137">
+      <c r="D86" s="134">
+        <v>0</v>
+      </c>
+      <c r="E86" s="134">
         <v>5</v>
       </c>
-      <c r="F86" s="137">
+      <c r="F86" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="136" t="s">
+      <c r="A87" s="133" t="s">
         <v>482</v>
       </c>
-      <c r="B87" s="137">
-        <v>0</v>
-      </c>
-      <c r="C87" s="138">
+      <c r="B87" s="134">
+        <v>0</v>
+      </c>
+      <c r="C87" s="135">
         <v>14</v>
       </c>
-      <c r="D87" s="137">
-        <v>0</v>
-      </c>
-      <c r="E87" s="137">
+      <c r="D87" s="134">
+        <v>0</v>
+      </c>
+      <c r="E87" s="134">
         <v>6</v>
       </c>
-      <c r="F87" s="137">
+      <c r="F87" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="145" t="s">
+      <c r="A88" s="142" t="s">
         <v>503</v>
       </c>
-      <c r="B88" s="147">
-        <v>0</v>
-      </c>
-      <c r="C88" s="148">
+      <c r="B88" s="144">
+        <v>0</v>
+      </c>
+      <c r="C88" s="145">
         <v>8</v>
       </c>
-      <c r="D88" s="147">
-        <v>0</v>
-      </c>
-      <c r="E88" s="147">
+      <c r="D88" s="144">
+        <v>0</v>
+      </c>
+      <c r="E88" s="144">
         <v>3</v>
       </c>
-      <c r="F88" s="147">
+      <c r="F88" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="152" t="s">
+      <c r="A89" s="149" t="s">
         <v>504</v>
       </c>
-      <c r="B89" s="152">
-        <v>0</v>
-      </c>
-      <c r="C89" s="152">
+      <c r="B89" s="149">
+        <v>0</v>
+      </c>
+      <c r="C89" s="149">
         <v>8</v>
       </c>
-      <c r="D89" s="153">
-        <v>0</v>
-      </c>
-      <c r="E89" s="153">
+      <c r="D89" s="150">
+        <v>0</v>
+      </c>
+      <c r="E89" s="150">
         <v>3</v>
       </c>
-      <c r="F89" s="153">
+      <c r="F89" s="150">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="158" t="s">
+      <c r="A90" s="155" t="s">
         <v>545</v>
       </c>
-      <c r="B90" s="158">
+      <c r="B90" s="155">
         <v>9</v>
       </c>
-      <c r="C90" s="158">
-        <v>0</v>
-      </c>
-      <c r="D90" s="159">
-        <v>0</v>
-      </c>
-      <c r="E90" s="159">
+      <c r="C90" s="155">
+        <v>0</v>
+      </c>
+      <c r="D90" s="156">
+        <v>0</v>
+      </c>
+      <c r="E90" s="156">
         <v>3</v>
       </c>
-      <c r="F90" s="159">
+      <c r="F90" s="156">
         <v>0</v>
       </c>
     </row>
@@ -12279,67 +12287,67 @@
       <c r="A2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="66" t="s">
         <v>206</v>
       </c>
       <c r="D2" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="103" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="Q2" s="103" t="s">
+      <c r="Q2" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="R2" s="103" t="s">
+      <c r="R2" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="S2" s="103" t="s">
+      <c r="S2" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="T2" s="103" t="s">
+      <c r="T2" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="U2" s="103" t="s">
+      <c r="U2" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="W2" s="103" t="s">
+      <c r="W2" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="X2" s="103" t="s">
+      <c r="X2" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="Y2" s="103" t="s">
+      <c r="Y2" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="Z2" s="103" t="s">
+      <c r="Z2" s="100" t="s">
         <v>193</v>
       </c>
-      <c r="AA2" s="103" t="s">
+      <c r="AA2" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="AB2" s="103" t="s">
+      <c r="AB2" s="100" t="s">
         <v>191</v>
       </c>
     </row>
@@ -12347,10 +12355,10 @@
       <c r="A3" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="66" t="s">
         <v>209</v>
       </c>
       <c r="D3" s="33" t="s">
@@ -12427,10 +12435,10 @@
       <c r="A4" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
       <c r="D4" s="18"/>
@@ -12447,10 +12455,10 @@
       <c r="A5" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>283</v>
       </c>
       <c r="D5" s="18"/>
@@ -12467,10 +12475,10 @@
       <c r="A6" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>284</v>
       </c>
       <c r="D6" s="18"/>
@@ -12483,78 +12491,78 @@
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:28" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+    <row r="7" spans="1:28" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="90" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="102">
-        <v>0</v>
-      </c>
-      <c r="F7" s="91">
-        <v>0</v>
-      </c>
-      <c r="G7" s="91">
-        <v>0</v>
-      </c>
-      <c r="H7" s="91">
-        <v>0</v>
-      </c>
-      <c r="I7" s="102">
-        <v>0</v>
-      </c>
-      <c r="J7" s="91">
-        <v>0</v>
-      </c>
-      <c r="K7" s="91">
-        <v>0</v>
-      </c>
-      <c r="L7" s="91">
+      <c r="D7" s="88"/>
+      <c r="E7" s="99">
+        <v>0</v>
+      </c>
+      <c r="F7" s="88">
+        <v>0</v>
+      </c>
+      <c r="G7" s="88">
+        <v>0</v>
+      </c>
+      <c r="H7" s="88">
+        <v>0</v>
+      </c>
+      <c r="I7" s="99">
+        <v>0</v>
+      </c>
+      <c r="J7" s="88">
+        <v>0</v>
+      </c>
+      <c r="K7" s="88">
+        <v>0</v>
+      </c>
+      <c r="L7" s="88">
         <v>1</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="98">
         <v>1</v>
       </c>
-      <c r="Q7" s="101">
-        <v>0</v>
-      </c>
-      <c r="R7" s="92">
-        <v>0</v>
-      </c>
-      <c r="S7" s="92">
-        <v>0</v>
-      </c>
-      <c r="T7" s="92">
-        <v>0</v>
-      </c>
-      <c r="U7" s="101">
-        <v>0</v>
-      </c>
-      <c r="V7" s="92">
-        <v>0</v>
-      </c>
-      <c r="W7" s="92">
-        <v>0</v>
-      </c>
-      <c r="X7" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="101">
+      <c r="Q7" s="98">
+        <v>0</v>
+      </c>
+      <c r="R7" s="89">
+        <v>0</v>
+      </c>
+      <c r="S7" s="89">
+        <v>0</v>
+      </c>
+      <c r="T7" s="89">
+        <v>0</v>
+      </c>
+      <c r="U7" s="98">
+        <v>0</v>
+      </c>
+      <c r="V7" s="89">
+        <v>0</v>
+      </c>
+      <c r="W7" s="89">
+        <v>0</v>
+      </c>
+      <c r="X7" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="98">
         <v>1</v>
       </c>
-      <c r="Z7" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="92">
+      <c r="Z7" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="89">
         <v>1</v>
       </c>
-      <c r="AB7" s="92">
+      <c r="AB7" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12562,77 +12570,77 @@
       <c r="A8" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="90" t="s">
         <v>376</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="102">
-        <v>0</v>
-      </c>
-      <c r="F8" s="91">
-        <v>0</v>
-      </c>
-      <c r="G8" s="91">
-        <v>0</v>
-      </c>
-      <c r="H8" s="91">
-        <v>0</v>
-      </c>
-      <c r="I8" s="102">
-        <v>0</v>
-      </c>
-      <c r="J8" s="91">
-        <v>0</v>
-      </c>
-      <c r="K8" s="91">
+      <c r="E8" s="99">
+        <v>0</v>
+      </c>
+      <c r="F8" s="88">
+        <v>0</v>
+      </c>
+      <c r="G8" s="88">
+        <v>0</v>
+      </c>
+      <c r="H8" s="88">
+        <v>0</v>
+      </c>
+      <c r="I8" s="99">
+        <v>0</v>
+      </c>
+      <c r="J8" s="88">
+        <v>0</v>
+      </c>
+      <c r="K8" s="88">
         <v>1</v>
       </c>
-      <c r="L8" s="91">
-        <v>0</v>
-      </c>
-      <c r="M8" s="101">
+      <c r="L8" s="88">
+        <v>0</v>
+      </c>
+      <c r="M8" s="98">
         <v>1</v>
       </c>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="101">
-        <v>0</v>
-      </c>
-      <c r="R8" s="92">
-        <v>0</v>
-      </c>
-      <c r="S8" s="92">
-        <v>0</v>
-      </c>
-      <c r="T8" s="92">
-        <v>0</v>
-      </c>
-      <c r="U8" s="101">
-        <v>0</v>
-      </c>
-      <c r="V8" s="92">
-        <v>0</v>
-      </c>
-      <c r="W8" s="92">
-        <v>0</v>
-      </c>
-      <c r="X8" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="101">
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="98">
+        <v>0</v>
+      </c>
+      <c r="R8" s="89">
+        <v>0</v>
+      </c>
+      <c r="S8" s="89">
+        <v>0</v>
+      </c>
+      <c r="T8" s="89">
+        <v>0</v>
+      </c>
+      <c r="U8" s="98">
+        <v>0</v>
+      </c>
+      <c r="V8" s="89">
+        <v>0</v>
+      </c>
+      <c r="W8" s="89">
+        <v>0</v>
+      </c>
+      <c r="X8" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="98">
         <v>1</v>
       </c>
-      <c r="Z8" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="92">
+      <c r="Z8" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="89">
         <v>1</v>
       </c>
-      <c r="AB8" s="92">
+      <c r="AB8" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12640,79 +12648,79 @@
       <c r="A9" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="90" t="s">
         <v>374</v>
       </c>
       <c r="D9" s="18">
         <v>294947</v>
       </c>
-      <c r="E9" s="102">
-        <v>0</v>
-      </c>
-      <c r="F9" s="91">
-        <v>0</v>
-      </c>
-      <c r="G9" s="91">
-        <v>0</v>
-      </c>
-      <c r="H9" s="91">
-        <v>0</v>
-      </c>
-      <c r="I9" s="102">
-        <v>0</v>
-      </c>
-      <c r="J9" s="91">
+      <c r="E9" s="99">
+        <v>0</v>
+      </c>
+      <c r="F9" s="88">
+        <v>0</v>
+      </c>
+      <c r="G9" s="88">
+        <v>0</v>
+      </c>
+      <c r="H9" s="88">
+        <v>0</v>
+      </c>
+      <c r="I9" s="99">
+        <v>0</v>
+      </c>
+      <c r="J9" s="88">
         <v>1</v>
       </c>
-      <c r="K9" s="91">
-        <v>0</v>
-      </c>
-      <c r="L9" s="91">
-        <v>0</v>
-      </c>
-      <c r="M9" s="101">
+      <c r="K9" s="88">
+        <v>0</v>
+      </c>
+      <c r="L9" s="88">
+        <v>0</v>
+      </c>
+      <c r="M9" s="98">
         <v>1</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="101">
-        <v>0</v>
-      </c>
-      <c r="R9" s="92">
-        <v>0</v>
-      </c>
-      <c r="S9" s="92">
-        <v>0</v>
-      </c>
-      <c r="T9" s="92">
-        <v>0</v>
-      </c>
-      <c r="U9" s="101">
-        <v>0</v>
-      </c>
-      <c r="V9" s="92">
-        <v>0</v>
-      </c>
-      <c r="W9" s="92">
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="98">
+        <v>0</v>
+      </c>
+      <c r="R9" s="89">
+        <v>0</v>
+      </c>
+      <c r="S9" s="89">
+        <v>0</v>
+      </c>
+      <c r="T9" s="89">
+        <v>0</v>
+      </c>
+      <c r="U9" s="98">
+        <v>0</v>
+      </c>
+      <c r="V9" s="89">
+        <v>0</v>
+      </c>
+      <c r="W9" s="89">
         <v>1</v>
       </c>
-      <c r="X9" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="92">
+      <c r="X9" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="89">
         <v>1</v>
       </c>
-      <c r="AB9" s="92">
+      <c r="AB9" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12720,79 +12728,79 @@
       <c r="A10" s="33" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="66" t="s">
         <v>371</v>
       </c>
       <c r="D10" s="18">
         <v>557315</v>
       </c>
-      <c r="E10" s="102">
-        <v>0</v>
-      </c>
-      <c r="F10" s="91">
-        <v>0</v>
-      </c>
-      <c r="G10" s="91">
-        <v>0</v>
-      </c>
-      <c r="H10" s="91">
-        <v>0</v>
-      </c>
-      <c r="I10" s="102">
+      <c r="E10" s="99">
+        <v>0</v>
+      </c>
+      <c r="F10" s="88">
+        <v>0</v>
+      </c>
+      <c r="G10" s="88">
+        <v>0</v>
+      </c>
+      <c r="H10" s="88">
+        <v>0</v>
+      </c>
+      <c r="I10" s="99">
         <v>1</v>
       </c>
-      <c r="J10" s="91">
-        <v>0</v>
-      </c>
-      <c r="K10" s="91">
-        <v>0</v>
-      </c>
-      <c r="L10" s="91">
-        <v>0</v>
-      </c>
-      <c r="M10" s="101">
+      <c r="J10" s="88">
+        <v>0</v>
+      </c>
+      <c r="K10" s="88">
+        <v>0</v>
+      </c>
+      <c r="L10" s="88">
+        <v>0</v>
+      </c>
+      <c r="M10" s="98">
         <v>1</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="101">
-        <v>0</v>
-      </c>
-      <c r="R10" s="92">
-        <v>0</v>
-      </c>
-      <c r="S10" s="92">
-        <v>0</v>
-      </c>
-      <c r="T10" s="92">
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="98">
+        <v>0</v>
+      </c>
+      <c r="R10" s="89">
+        <v>0</v>
+      </c>
+      <c r="S10" s="89">
+        <v>0</v>
+      </c>
+      <c r="T10" s="89">
         <v>1</v>
       </c>
-      <c r="U10" s="101">
-        <v>0</v>
-      </c>
-      <c r="V10" s="92">
-        <v>0</v>
-      </c>
-      <c r="W10" s="92">
-        <v>0</v>
-      </c>
-      <c r="X10" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="92">
+      <c r="U10" s="98">
+        <v>0</v>
+      </c>
+      <c r="V10" s="89">
+        <v>0</v>
+      </c>
+      <c r="W10" s="89">
+        <v>0</v>
+      </c>
+      <c r="X10" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="89">
         <v>1</v>
       </c>
-      <c r="AB10" s="92">
+      <c r="AB10" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12800,79 +12808,79 @@
       <c r="A11" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="66" t="s">
         <v>372</v>
       </c>
       <c r="D11" s="18">
         <v>1081603</v>
       </c>
-      <c r="E11" s="102">
-        <v>0</v>
-      </c>
-      <c r="F11" s="91">
-        <v>0</v>
-      </c>
-      <c r="G11" s="91">
-        <v>0</v>
-      </c>
-      <c r="H11" s="91">
-        <v>0</v>
-      </c>
-      <c r="I11" s="102">
-        <v>0</v>
-      </c>
-      <c r="J11" s="91">
-        <v>0</v>
-      </c>
-      <c r="K11" s="91">
-        <v>0</v>
-      </c>
-      <c r="L11" s="91">
-        <v>0</v>
-      </c>
-      <c r="M11" s="101">
+      <c r="E11" s="99">
+        <v>0</v>
+      </c>
+      <c r="F11" s="88">
+        <v>0</v>
+      </c>
+      <c r="G11" s="88">
+        <v>0</v>
+      </c>
+      <c r="H11" s="88">
+        <v>0</v>
+      </c>
+      <c r="I11" s="99">
+        <v>0</v>
+      </c>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
+      <c r="K11" s="88">
+        <v>0</v>
+      </c>
+      <c r="L11" s="88">
+        <v>0</v>
+      </c>
+      <c r="M11" s="98">
         <v>1</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="101">
-        <v>0</v>
-      </c>
-      <c r="R11" s="92">
-        <v>0</v>
-      </c>
-      <c r="S11" s="92">
-        <v>0</v>
-      </c>
-      <c r="T11" s="92">
-        <v>0</v>
-      </c>
-      <c r="U11" s="101">
-        <v>0</v>
-      </c>
-      <c r="V11" s="92">
-        <v>0</v>
-      </c>
-      <c r="W11" s="92">
-        <v>0</v>
-      </c>
-      <c r="X11" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="92">
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="98">
+        <v>0</v>
+      </c>
+      <c r="R11" s="89">
+        <v>0</v>
+      </c>
+      <c r="S11" s="89">
+        <v>0</v>
+      </c>
+      <c r="T11" s="89">
+        <v>0</v>
+      </c>
+      <c r="U11" s="98">
+        <v>0</v>
+      </c>
+      <c r="V11" s="89">
+        <v>0</v>
+      </c>
+      <c r="W11" s="89">
+        <v>0</v>
+      </c>
+      <c r="X11" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="89">
         <v>1</v>
       </c>
-      <c r="AB11" s="92">
+      <c r="AB11" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12880,79 +12888,79 @@
       <c r="A12" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="90" t="s">
         <v>377</v>
       </c>
       <c r="D12" s="33">
         <v>2130019</v>
       </c>
-      <c r="E12" s="102">
-        <v>0</v>
-      </c>
-      <c r="F12" s="91">
-        <v>0</v>
-      </c>
-      <c r="G12" s="91">
+      <c r="E12" s="99">
+        <v>0</v>
+      </c>
+      <c r="F12" s="88">
+        <v>0</v>
+      </c>
+      <c r="G12" s="88">
         <v>1</v>
       </c>
-      <c r="H12" s="91">
-        <v>0</v>
-      </c>
-      <c r="I12" s="102">
-        <v>0</v>
-      </c>
-      <c r="J12" s="91">
-        <v>0</v>
-      </c>
-      <c r="K12" s="91">
-        <v>0</v>
-      </c>
-      <c r="L12" s="91">
-        <v>0</v>
-      </c>
-      <c r="M12" s="101">
+      <c r="H12" s="88">
+        <v>0</v>
+      </c>
+      <c r="I12" s="99">
+        <v>0</v>
+      </c>
+      <c r="J12" s="88">
+        <v>0</v>
+      </c>
+      <c r="K12" s="88">
+        <v>0</v>
+      </c>
+      <c r="L12" s="88">
+        <v>0</v>
+      </c>
+      <c r="M12" s="98">
         <v>1</v>
       </c>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="101">
-        <v>0</v>
-      </c>
-      <c r="R12" s="92">
-        <v>0</v>
-      </c>
-      <c r="S12" s="92">
-        <v>0</v>
-      </c>
-      <c r="T12" s="92">
-        <v>0</v>
-      </c>
-      <c r="U12" s="101">
-        <v>0</v>
-      </c>
-      <c r="V12" s="92">
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="98">
+        <v>0</v>
+      </c>
+      <c r="R12" s="89">
+        <v>0</v>
+      </c>
+      <c r="S12" s="89">
+        <v>0</v>
+      </c>
+      <c r="T12" s="89">
+        <v>0</v>
+      </c>
+      <c r="U12" s="98">
+        <v>0</v>
+      </c>
+      <c r="V12" s="89">
         <v>1</v>
       </c>
-      <c r="W12" s="92">
+      <c r="W12" s="89">
         <v>1</v>
       </c>
-      <c r="X12" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="92">
+      <c r="X12" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="89">
         <v>1</v>
       </c>
-      <c r="AB12" s="92">
+      <c r="AB12" s="89">
         <v>1</v>
       </c>
     </row>
@@ -12960,79 +12968,79 @@
       <c r="A13" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="90" t="s">
         <v>373</v>
       </c>
       <c r="D13" s="18">
         <v>2130947</v>
       </c>
-      <c r="E13" s="102">
-        <v>0</v>
-      </c>
-      <c r="F13" s="91">
-        <v>0</v>
-      </c>
-      <c r="G13" s="91">
-        <v>0</v>
-      </c>
-      <c r="H13" s="91">
-        <v>0</v>
-      </c>
-      <c r="I13" s="102">
-        <v>0</v>
-      </c>
-      <c r="J13" s="91">
-        <v>0</v>
-      </c>
-      <c r="K13" s="91">
-        <v>0</v>
-      </c>
-      <c r="L13" s="91">
-        <v>0</v>
-      </c>
-      <c r="M13" s="101">
+      <c r="E13" s="99">
+        <v>0</v>
+      </c>
+      <c r="F13" s="88">
+        <v>0</v>
+      </c>
+      <c r="G13" s="88">
+        <v>0</v>
+      </c>
+      <c r="H13" s="88">
+        <v>0</v>
+      </c>
+      <c r="I13" s="99">
+        <v>0</v>
+      </c>
+      <c r="J13" s="88">
+        <v>0</v>
+      </c>
+      <c r="K13" s="88">
+        <v>0</v>
+      </c>
+      <c r="L13" s="88">
+        <v>0</v>
+      </c>
+      <c r="M13" s="98">
         <v>1</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="101">
-        <v>0</v>
-      </c>
-      <c r="R13" s="92">
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="98">
+        <v>0</v>
+      </c>
+      <c r="R13" s="89">
         <v>1</v>
       </c>
-      <c r="S13" s="92">
-        <v>0</v>
-      </c>
-      <c r="T13" s="92">
-        <v>0</v>
-      </c>
-      <c r="U13" s="101">
-        <v>0</v>
-      </c>
-      <c r="V13" s="92">
-        <v>0</v>
-      </c>
-      <c r="W13" s="92">
-        <v>0</v>
-      </c>
-      <c r="X13" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="92">
+      <c r="S13" s="89">
+        <v>0</v>
+      </c>
+      <c r="T13" s="89">
+        <v>0</v>
+      </c>
+      <c r="U13" s="98">
+        <v>0</v>
+      </c>
+      <c r="V13" s="89">
+        <v>0</v>
+      </c>
+      <c r="W13" s="89">
+        <v>0</v>
+      </c>
+      <c r="X13" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="89">
         <v>1</v>
       </c>
-      <c r="AB13" s="92">
+      <c r="AB13" s="89">
         <v>1</v>
       </c>
     </row>
@@ -13040,79 +13048,79 @@
       <c r="A14" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="66" t="s">
         <v>383</v>
       </c>
       <c r="D14" s="33">
         <v>2059</v>
       </c>
-      <c r="E14" s="102">
-        <v>0</v>
-      </c>
-      <c r="F14" s="91">
-        <v>0</v>
-      </c>
-      <c r="G14" s="91">
+      <c r="E14" s="99">
+        <v>0</v>
+      </c>
+      <c r="F14" s="88">
+        <v>0</v>
+      </c>
+      <c r="G14" s="88">
         <v>1</v>
       </c>
-      <c r="H14" s="91">
-        <v>0</v>
-      </c>
-      <c r="I14" s="102">
-        <v>0</v>
-      </c>
-      <c r="J14" s="91">
-        <v>0</v>
-      </c>
-      <c r="K14" s="91">
-        <v>0</v>
-      </c>
-      <c r="L14" s="91">
-        <v>0</v>
-      </c>
-      <c r="M14" s="101">
-        <v>0</v>
-      </c>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="101">
+      <c r="H14" s="88">
+        <v>0</v>
+      </c>
+      <c r="I14" s="99">
+        <v>0</v>
+      </c>
+      <c r="J14" s="88">
+        <v>0</v>
+      </c>
+      <c r="K14" s="88">
+        <v>0</v>
+      </c>
+      <c r="L14" s="88">
+        <v>0</v>
+      </c>
+      <c r="M14" s="98">
+        <v>0</v>
+      </c>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="98">
         <v>1</v>
       </c>
-      <c r="R14" s="92">
-        <v>0</v>
-      </c>
-      <c r="S14" s="92">
-        <v>0</v>
-      </c>
-      <c r="T14" s="92">
-        <v>0</v>
-      </c>
-      <c r="U14" s="101">
-        <v>0</v>
-      </c>
-      <c r="V14" s="92">
-        <v>0</v>
-      </c>
-      <c r="W14" s="92">
-        <v>0</v>
-      </c>
-      <c r="X14" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="92">
+      <c r="R14" s="89">
+        <v>0</v>
+      </c>
+      <c r="S14" s="89">
+        <v>0</v>
+      </c>
+      <c r="T14" s="89">
+        <v>0</v>
+      </c>
+      <c r="U14" s="98">
+        <v>0</v>
+      </c>
+      <c r="V14" s="89">
+        <v>0</v>
+      </c>
+      <c r="W14" s="89">
+        <v>0</v>
+      </c>
+      <c r="X14" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="89">
         <v>1</v>
       </c>
-      <c r="AB14" s="92">
+      <c r="AB14" s="89">
         <v>1</v>
       </c>
     </row>
@@ -13120,81 +13128,81 @@
       <c r="A15" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="90" t="s">
         <v>441</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="66" t="s">
         <v>384</v>
       </c>
       <c r="D15" s="33">
         <v>8451</v>
       </c>
-      <c r="E15" s="102">
-        <v>0</v>
-      </c>
-      <c r="F15" s="91">
-        <v>0</v>
-      </c>
-      <c r="G15" s="91">
-        <v>0</v>
-      </c>
-      <c r="H15" s="91">
-        <v>0</v>
-      </c>
-      <c r="I15" s="102">
-        <v>0</v>
-      </c>
-      <c r="J15" s="91">
-        <v>0</v>
-      </c>
-      <c r="K15" s="91">
-        <v>0</v>
-      </c>
-      <c r="L15" s="91">
-        <v>0</v>
-      </c>
-      <c r="M15" s="101">
+      <c r="E15" s="99">
+        <v>0</v>
+      </c>
+      <c r="F15" s="88">
+        <v>0</v>
+      </c>
+      <c r="G15" s="88">
+        <v>0</v>
+      </c>
+      <c r="H15" s="88">
+        <v>0</v>
+      </c>
+      <c r="I15" s="99">
+        <v>0</v>
+      </c>
+      <c r="J15" s="88">
+        <v>0</v>
+      </c>
+      <c r="K15" s="88">
+        <v>0</v>
+      </c>
+      <c r="L15" s="88">
+        <v>0</v>
+      </c>
+      <c r="M15" s="98">
         <v>1</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92">
+      <c r="N15" s="89"/>
+      <c r="O15" s="89">
         <v>1</v>
       </c>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="101">
-        <v>0</v>
-      </c>
-      <c r="R15" s="92">
-        <v>0</v>
-      </c>
-      <c r="S15" s="92">
-        <v>0</v>
-      </c>
-      <c r="T15" s="92">
+      <c r="P15" s="89"/>
+      <c r="Q15" s="98">
+        <v>0</v>
+      </c>
+      <c r="R15" s="89">
+        <v>0</v>
+      </c>
+      <c r="S15" s="89">
+        <v>0</v>
+      </c>
+      <c r="T15" s="89">
         <v>1</v>
       </c>
-      <c r="U15" s="101">
-        <v>0</v>
-      </c>
-      <c r="V15" s="92">
-        <v>0</v>
-      </c>
-      <c r="W15" s="92">
-        <v>0</v>
-      </c>
-      <c r="X15" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="92">
+      <c r="U15" s="98">
+        <v>0</v>
+      </c>
+      <c r="V15" s="89">
+        <v>0</v>
+      </c>
+      <c r="W15" s="89">
+        <v>0</v>
+      </c>
+      <c r="X15" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="89">
         <v>1</v>
       </c>
-      <c r="AB15" s="92">
+      <c r="AB15" s="89">
         <v>1</v>
       </c>
     </row>
@@ -13202,85 +13210,85 @@
       <c r="A16" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="66" t="s">
         <v>392</v>
       </c>
       <c r="D16" s="33">
         <v>4137</v>
       </c>
-      <c r="E16" s="102">
-        <v>0</v>
-      </c>
-      <c r="F16" s="91">
-        <v>0</v>
-      </c>
-      <c r="G16" s="91">
+      <c r="E16" s="99">
+        <v>0</v>
+      </c>
+      <c r="F16" s="88">
+        <v>0</v>
+      </c>
+      <c r="G16" s="88">
         <v>1</v>
       </c>
-      <c r="H16" s="91">
-        <v>0</v>
-      </c>
-      <c r="I16" s="102">
-        <v>0</v>
-      </c>
-      <c r="J16" s="91">
-        <v>0</v>
-      </c>
-      <c r="K16" s="91">
-        <v>0</v>
-      </c>
-      <c r="L16" s="91">
-        <v>0</v>
-      </c>
-      <c r="M16" s="101">
-        <v>0</v>
-      </c>
-      <c r="N16" s="92">
-        <v>0</v>
-      </c>
-      <c r="O16" s="92">
-        <v>0</v>
-      </c>
-      <c r="P16" s="92">
+      <c r="H16" s="88">
+        <v>0</v>
+      </c>
+      <c r="I16" s="99">
+        <v>0</v>
+      </c>
+      <c r="J16" s="88">
+        <v>0</v>
+      </c>
+      <c r="K16" s="88">
+        <v>0</v>
+      </c>
+      <c r="L16" s="88">
+        <v>0</v>
+      </c>
+      <c r="M16" s="98">
+        <v>0</v>
+      </c>
+      <c r="N16" s="89">
+        <v>0</v>
+      </c>
+      <c r="O16" s="89">
+        <v>0</v>
+      </c>
+      <c r="P16" s="89">
         <v>1</v>
       </c>
-      <c r="Q16" s="101">
-        <v>0</v>
-      </c>
-      <c r="R16" s="92">
-        <v>0</v>
-      </c>
-      <c r="S16" s="92">
-        <v>0</v>
-      </c>
-      <c r="T16" s="92">
-        <v>0</v>
-      </c>
-      <c r="U16" s="101">
-        <v>0</v>
-      </c>
-      <c r="V16" s="92">
-        <v>0</v>
-      </c>
-      <c r="W16" s="92">
+      <c r="Q16" s="98">
+        <v>0</v>
+      </c>
+      <c r="R16" s="89">
+        <v>0</v>
+      </c>
+      <c r="S16" s="89">
+        <v>0</v>
+      </c>
+      <c r="T16" s="89">
+        <v>0</v>
+      </c>
+      <c r="U16" s="98">
+        <v>0</v>
+      </c>
+      <c r="V16" s="89">
+        <v>0</v>
+      </c>
+      <c r="W16" s="89">
         <v>1</v>
       </c>
-      <c r="X16" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="101">
+      <c r="X16" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="98">
         <v>1</v>
       </c>
-      <c r="Z16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="92">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="92">
+      <c r="Z16" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="89">
         <v>1</v>
       </c>
     </row>
@@ -13288,85 +13296,85 @@
       <c r="A17" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="90" t="s">
         <v>382</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="66" t="s">
         <v>393</v>
       </c>
       <c r="D17" s="33">
         <v>17665</v>
       </c>
-      <c r="E17" s="102">
-        <v>0</v>
-      </c>
-      <c r="F17" s="91">
-        <v>0</v>
-      </c>
-      <c r="G17" s="91">
-        <v>0</v>
-      </c>
-      <c r="H17" s="91">
-        <v>0</v>
-      </c>
-      <c r="I17" s="102">
-        <v>0</v>
-      </c>
-      <c r="J17" s="91">
-        <v>0</v>
-      </c>
-      <c r="K17" s="91">
-        <v>0</v>
-      </c>
-      <c r="L17" s="91">
-        <v>0</v>
-      </c>
-      <c r="M17" s="101">
-        <v>0</v>
-      </c>
-      <c r="N17" s="92">
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="88">
+        <v>0</v>
+      </c>
+      <c r="G17" s="88">
+        <v>0</v>
+      </c>
+      <c r="H17" s="88">
+        <v>0</v>
+      </c>
+      <c r="I17" s="99">
+        <v>0</v>
+      </c>
+      <c r="J17" s="88">
+        <v>0</v>
+      </c>
+      <c r="K17" s="88">
+        <v>0</v>
+      </c>
+      <c r="L17" s="88">
+        <v>0</v>
+      </c>
+      <c r="M17" s="98">
+        <v>0</v>
+      </c>
+      <c r="N17" s="89">
         <v>1</v>
       </c>
-      <c r="O17" s="92">
-        <v>0</v>
-      </c>
-      <c r="P17" s="92">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="101">
-        <v>0</v>
-      </c>
-      <c r="R17" s="92">
+      <c r="O17" s="89">
+        <v>0</v>
+      </c>
+      <c r="P17" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="98">
+        <v>0</v>
+      </c>
+      <c r="R17" s="89">
         <v>1</v>
       </c>
-      <c r="S17" s="92">
-        <v>0</v>
-      </c>
-      <c r="T17" s="92">
+      <c r="S17" s="89">
+        <v>0</v>
+      </c>
+      <c r="T17" s="89">
         <v>1</v>
       </c>
-      <c r="U17" s="101">
-        <v>0</v>
-      </c>
-      <c r="V17" s="92">
-        <v>0</v>
-      </c>
-      <c r="W17" s="92">
-        <v>0</v>
-      </c>
-      <c r="X17" s="92">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="101">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="92">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="92">
+      <c r="U17" s="98">
+        <v>0</v>
+      </c>
+      <c r="V17" s="89">
+        <v>0</v>
+      </c>
+      <c r="W17" s="89">
+        <v>0</v>
+      </c>
+      <c r="X17" s="89">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="98">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="89">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="89">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="89">
         <v>1</v>
       </c>
     </row>
@@ -13374,10 +13382,10 @@
       <c r="A18" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="66" t="s">
         <v>390</v>
       </c>
     </row>
@@ -13385,10 +13393,10 @@
       <c r="A19" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="66" t="s">
         <v>440</v>
       </c>
     </row>
@@ -13396,10 +13404,10 @@
       <c r="A20" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="66" t="s">
         <v>400</v>
       </c>
     </row>
@@ -13407,10 +13415,10 @@
       <c r="A21" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="66" t="s">
         <v>400</v>
       </c>
     </row>
@@ -13418,10 +13426,10 @@
       <c r="A22" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="66" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13429,10 +13437,10 @@
       <c r="A23" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="66" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="66" t="s">
         <v>401</v>
       </c>
     </row>
@@ -13440,10 +13448,10 @@
       <c r="A24" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="66" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13451,10 +13459,10 @@
       <c r="A25" s="33" t="s">
         <v>413</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="66" t="s">
         <v>408</v>
       </c>
     </row>
@@ -13462,10 +13470,10 @@
       <c r="A26" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="66" t="s">
         <v>329</v>
       </c>
     </row>
@@ -13473,10 +13481,10 @@
       <c r="A27" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="66" t="s">
         <v>329</v>
       </c>
     </row>
@@ -13484,10 +13492,10 @@
       <c r="A28" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="66" t="s">
         <v>409</v>
       </c>
     </row>
@@ -13495,10 +13503,10 @@
       <c r="A29" s="33" t="s">
         <v>395</v>
       </c>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="66" t="s">
         <v>282</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="66" t="s">
         <v>409</v>
       </c>
     </row>
@@ -13506,10 +13514,10 @@
       <c r="A30" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="66" t="s">
         <v>410</v>
       </c>
     </row>
@@ -13517,10 +13525,10 @@
       <c r="A31" s="33" t="s">
         <v>397</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="66" t="s">
         <v>410</v>
       </c>
     </row>
@@ -13528,10 +13536,10 @@
       <c r="A32" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="66" t="s">
         <v>411</v>
       </c>
     </row>
@@ -13539,21 +13547,21 @@
       <c r="A33" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="66" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="90" t="s">
         <v>453</v>
       </c>
       <c r="D34">
@@ -13561,13 +13569,13 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="87" t="s">
         <v>462</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="90" t="s">
         <v>454</v>
       </c>
       <c r="D35">
@@ -13575,13 +13583,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="90" t="s">
         <v>455</v>
       </c>
       <c r="D36">
@@ -13589,13 +13597,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="90" t="s">
         <v>456</v>
       </c>
       <c r="D37">
@@ -13603,90 +13611,90 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="66" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="87" t="s">
         <v>466</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="66" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="87" t="s">
         <v>467</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="66" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="66" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="127" t="s">
         <v>471</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="90" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="130" t="s">
+      <c r="A44" s="127" t="s">
         <v>472</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C44" s="69" t="s">
+      <c r="C44" s="66" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="130" t="s">
+      <c r="A45" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C45" s="66" t="s">
         <v>475</v>
       </c>
     </row>

--- a/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
+++ b/config/project/Integrate_120KW_megmeet_new/IntegrateConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7720" tabRatio="667"/>
+    <workbookView windowWidth="19100" windowHeight="7730" tabRatio="667" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试条例" sheetId="62" r:id="rId1"/>
@@ -2445,21 +2445,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2471,10 +2476,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2483,33 +2490,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2523,24 +2526,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
+      <sz val="11"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2553,6 +2546,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2560,13 +2560,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2624,12 +2624,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2642,7 +2636,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,19 +2666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,7 +2696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,13 +2708,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,43 +2744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="30"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2831,40 +2831,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color indexed="63"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color indexed="63"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -2908,8 +2884,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2923,16 +2914,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="63"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color indexed="63"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -2945,10 +2945,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2957,16 +2957,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2975,118 +2975,118 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -3586,7 +3586,7 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A62" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
@@ -8050,8 +8050,8 @@
   <sheetPr/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -8253,7 +8253,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8341,7 +8341,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:3">
